--- a/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4083" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4084" uniqueCount="652">
   <si>
     <t>ID</t>
   </si>
@@ -3513,6 +3513,9 @@
   </si>
   <si>
     <t>Multa coercitiva</t>
+  </si>
+  <si>
+    <t>Eliminar</t>
   </si>
 </sst>
 </file>
@@ -3571,7 +3574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3624,6 +3627,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFDE9D9"/>
       </patternFill>
     </fill>
   </fills>
@@ -3693,7 +3708,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3807,6 +3822,36 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="1" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4024,9 +4069,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S184" sqref="A74:S184"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8357,57 +8402,57 @@
       <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="3">
+      <c r="A74" s="47">
         <v>13</v>
       </c>
-      <c r="B74" s="42" t="s">
+      <c r="B74" s="48" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="C74" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="12" t="s">
+      <c r="D74" s="49" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="5">
-        <v>1</v>
-      </c>
-      <c r="F74" s="12"/>
-      <c r="G74" s="6">
+      <c r="E74" s="50">
+        <v>1</v>
+      </c>
+      <c r="F74" s="49"/>
+      <c r="G74" s="51">
         <v>10441.083000000001</v>
       </c>
-      <c r="H74" s="7">
+      <c r="H74" s="52">
         <v>0.10758</v>
       </c>
-      <c r="I74" s="5">
+      <c r="I74" s="50">
         <v>48.225999999999999</v>
       </c>
-      <c r="J74" s="6">
+      <c r="J74" s="51">
         <v>15741.93</v>
       </c>
-      <c r="K74" s="5" t="s">
+      <c r="K74" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="5">
+      <c r="L74" s="50">
         <v>3.8340000000000001</v>
       </c>
-      <c r="M74" s="8">
+      <c r="M74" s="53">
         <v>12.193</v>
       </c>
-      <c r="N74" s="9">
+      <c r="N74" s="54">
         <v>0.75</v>
       </c>
-      <c r="O74" s="8">
+      <c r="O74" s="53">
         <v>26.986999999999998</v>
       </c>
-      <c r="P74" s="16">
+      <c r="P74" s="55">
         <v>0</v>
       </c>
-      <c r="Q74" s="10">
+      <c r="Q74" s="56">
         <v>43.646000000000001</v>
       </c>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
+      <c r="R74" s="47"/>
+      <c r="S74" s="47"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
@@ -14883,57 +14928,57 @@
       <c r="Z183" s="11"/>
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="3">
+      <c r="A184" s="47">
         <v>37</v>
       </c>
-      <c r="B184" s="42" t="s">
+      <c r="B184" s="48" t="s">
         <v>267</v>
       </c>
-      <c r="C184" s="12" t="s">
+      <c r="C184" s="49" t="s">
         <v>268</v>
       </c>
-      <c r="D184" s="12" t="s">
+      <c r="D184" s="49" t="s">
         <v>269</v>
       </c>
-      <c r="E184" s="5">
-        <v>1</v>
-      </c>
-      <c r="F184" s="12"/>
-      <c r="G184" s="6">
+      <c r="E184" s="50">
+        <v>1</v>
+      </c>
+      <c r="F184" s="49"/>
+      <c r="G184" s="51">
         <v>20684.526000000002</v>
       </c>
-      <c r="H184" s="7">
+      <c r="H184" s="52">
         <v>0.13994000000000001</v>
       </c>
-      <c r="I184" s="8">
+      <c r="I184" s="53">
         <v>39.6</v>
       </c>
-      <c r="J184" s="6">
+      <c r="J184" s="51">
         <v>31862.583999999999</v>
       </c>
-      <c r="K184" s="5" t="s">
+      <c r="K184" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="L184" s="5">
+      <c r="L184" s="50">
         <v>3.835</v>
       </c>
-      <c r="M184" s="8">
+      <c r="M184" s="53">
         <v>24.684999999999999</v>
       </c>
-      <c r="N184" s="9">
+      <c r="N184" s="54">
         <v>0.75</v>
       </c>
-      <c r="O184" s="8">
+      <c r="O184" s="53">
         <v>70.435000000000002</v>
       </c>
-      <c r="P184" s="16">
+      <c r="P184" s="55">
         <v>0</v>
       </c>
-      <c r="Q184" s="10">
+      <c r="Q184" s="56">
         <v>372.89499999999998</v>
       </c>
-      <c r="R184" s="3"/>
-      <c r="S184" s="3"/>
+      <c r="R184" s="47"/>
+      <c r="S184" s="47"/>
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
       <c r="V184" s="11"/>
@@ -45397,7 +45442,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C153" sqref="C153"/>
+      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -63947,7 +63992,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
@@ -63967,6 +64014,13 @@
         <v>648</v>
       </c>
       <c r="D3" s="46"/>
+    </row>
+    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="57"/>
+      <c r="C4" s="45" t="s">
+        <v>651</v>
+      </c>
+      <c r="D4" s="58"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -64949,9 +65003,10 @@
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Componentes!$A$1:$S$423</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Graduacion!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Graduacion!$A$1:$F$860</definedName>
   </definedNames>
   <calcPr calcId="0"/>
   <extLst>
@@ -3818,10 +3818,6 @@
     <xf numFmtId="0" fontId="2" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3849,6 +3845,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -8402,57 +8402,57 @@
       <c r="Z73" s="11"/>
     </row>
     <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="47">
+      <c r="A74" s="45">
         <v>13</v>
       </c>
-      <c r="B74" s="48" t="s">
+      <c r="B74" s="46" t="s">
         <v>120</v>
       </c>
-      <c r="C74" s="47" t="s">
+      <c r="C74" s="45" t="s">
         <v>121</v>
       </c>
-      <c r="D74" s="49" t="s">
+      <c r="D74" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="E74" s="50">
-        <v>1</v>
-      </c>
-      <c r="F74" s="49"/>
-      <c r="G74" s="51">
+      <c r="E74" s="48">
+        <v>1</v>
+      </c>
+      <c r="F74" s="47"/>
+      <c r="G74" s="49">
         <v>10441.083000000001</v>
       </c>
-      <c r="H74" s="52">
+      <c r="H74" s="50">
         <v>0.10758</v>
       </c>
-      <c r="I74" s="50">
+      <c r="I74" s="48">
         <v>48.225999999999999</v>
       </c>
-      <c r="J74" s="51">
+      <c r="J74" s="49">
         <v>15741.93</v>
       </c>
-      <c r="K74" s="50" t="s">
+      <c r="K74" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L74" s="50">
+      <c r="L74" s="48">
         <v>3.8340000000000001</v>
       </c>
-      <c r="M74" s="53">
+      <c r="M74" s="51">
         <v>12.193</v>
       </c>
-      <c r="N74" s="54">
+      <c r="N74" s="52">
         <v>0.75</v>
       </c>
-      <c r="O74" s="53">
+      <c r="O74" s="51">
         <v>26.986999999999998</v>
       </c>
-      <c r="P74" s="55">
+      <c r="P74" s="53">
         <v>0</v>
       </c>
-      <c r="Q74" s="56">
+      <c r="Q74" s="54">
         <v>43.646000000000001</v>
       </c>
-      <c r="R74" s="47"/>
-      <c r="S74" s="47"/>
+      <c r="R74" s="45"/>
+      <c r="S74" s="45"/>
       <c r="T74" s="11"/>
       <c r="U74" s="11"/>
       <c r="V74" s="11"/>
@@ -14928,57 +14928,57 @@
       <c r="Z183" s="11"/>
     </row>
     <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="47">
+      <c r="A184" s="45">
         <v>37</v>
       </c>
-      <c r="B184" s="48" t="s">
+      <c r="B184" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="C184" s="49" t="s">
+      <c r="C184" s="47" t="s">
         <v>268</v>
       </c>
-      <c r="D184" s="49" t="s">
+      <c r="D184" s="47" t="s">
         <v>269</v>
       </c>
-      <c r="E184" s="50">
-        <v>1</v>
-      </c>
-      <c r="F184" s="49"/>
-      <c r="G184" s="51">
+      <c r="E184" s="48">
+        <v>1</v>
+      </c>
+      <c r="F184" s="47"/>
+      <c r="G184" s="49">
         <v>20684.526000000002</v>
       </c>
-      <c r="H184" s="52">
+      <c r="H184" s="50">
         <v>0.13994000000000001</v>
       </c>
-      <c r="I184" s="53">
+      <c r="I184" s="51">
         <v>39.6</v>
       </c>
-      <c r="J184" s="51">
+      <c r="J184" s="49">
         <v>31862.583999999999</v>
       </c>
-      <c r="K184" s="50" t="s">
+      <c r="K184" s="48" t="s">
         <v>22</v>
       </c>
-      <c r="L184" s="50">
+      <c r="L184" s="48">
         <v>3.835</v>
       </c>
-      <c r="M184" s="53">
+      <c r="M184" s="51">
         <v>24.684999999999999</v>
       </c>
-      <c r="N184" s="54">
+      <c r="N184" s="52">
         <v>0.75</v>
       </c>
-      <c r="O184" s="53">
+      <c r="O184" s="51">
         <v>70.435000000000002</v>
       </c>
-      <c r="P184" s="55">
+      <c r="P184" s="53">
         <v>0</v>
       </c>
-      <c r="Q184" s="56">
+      <c r="Q184" s="54">
         <v>372.89499999999998</v>
       </c>
-      <c r="R184" s="47"/>
-      <c r="S184" s="47"/>
+      <c r="R184" s="45"/>
+      <c r="S184" s="45"/>
       <c r="T184" s="11"/>
       <c r="U184" s="11"/>
       <c r="V184" s="11"/>
@@ -45440,9 +45440,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1316"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A143" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B169" sqref="B169"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -63707,7 +63707,7 @@
       <c r="F1316" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F1"/>
+  <autoFilter ref="A1:F860"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
@@ -63992,7 +63992,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C4" sqref="C4:D4"/>
     </sheetView>
   </sheetViews>
@@ -64003,21 +64003,21 @@
   <sheetData>
     <row r="2" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38"/>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="56" t="s">
         <v>647</v>
       </c>
-      <c r="D2" s="46"/>
+      <c r="D2" s="57"/>
     </row>
     <row r="3" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
-      <c r="C3" s="45" t="s">
+      <c r="C3" s="56" t="s">
         <v>648</v>
       </c>
-      <c r="D3" s="46"/>
+      <c r="D3" s="57"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="57"/>
-      <c r="C4" s="45" t="s">
+      <c r="B4" s="55"/>
+      <c r="C4" s="56" t="s">
         <v>651</v>
       </c>
       <c r="D4" s="58"/>

--- a/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="Componentes" sheetId="1" r:id="rId1"/>
@@ -3845,15 +3845,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -4071,12 +4071,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B19" sqref="B19"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -4154,7 +4153,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4216,7 +4215,7 @@
       <c r="Y2" s="11"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -4278,7 +4277,7 @@
       <c r="Y3" s="11"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>1</v>
       </c>
@@ -4340,7 +4339,7 @@
       <c r="Y4" s="11"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -4402,7 +4401,7 @@
       <c r="Y5" s="11"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>1</v>
       </c>
@@ -4464,7 +4463,7 @@
       <c r="Y6" s="11"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>2</v>
       </c>
@@ -4522,7 +4521,7 @@
       <c r="Y7" s="11"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -4580,7 +4579,7 @@
       <c r="Y8" s="11"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>2</v>
       </c>
@@ -4638,7 +4637,7 @@
       <c r="Y9" s="11"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>2</v>
       </c>
@@ -4696,7 +4695,7 @@
       <c r="Y10" s="11"/>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>2</v>
       </c>
@@ -4754,7 +4753,7 @@
       <c r="Y11" s="11"/>
       <c r="Z11" s="11"/>
     </row>
-    <row r="12" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>2</v>
       </c>
@@ -4812,7 +4811,7 @@
       <c r="Y12" s="11"/>
       <c r="Z12" s="11"/>
     </row>
-    <row r="13" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>2</v>
       </c>
@@ -4870,7 +4869,7 @@
       <c r="Y13" s="11"/>
       <c r="Z13" s="11"/>
     </row>
-    <row r="14" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>3</v>
       </c>
@@ -4930,7 +4929,7 @@
       <c r="Y14" s="11"/>
       <c r="Z14" s="11"/>
     </row>
-    <row r="15" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>3</v>
       </c>
@@ -4990,7 +4989,7 @@
       <c r="Y15" s="11"/>
       <c r="Z15" s="11"/>
     </row>
-    <row r="16" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>3</v>
       </c>
@@ -5050,7 +5049,7 @@
       <c r="Y16" s="11"/>
       <c r="Z16" s="11"/>
     </row>
-    <row r="17" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>3</v>
       </c>
@@ -5110,7 +5109,7 @@
       <c r="Y17" s="11"/>
       <c r="Z17" s="11"/>
     </row>
-    <row r="18" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>3</v>
       </c>
@@ -5170,7 +5169,7 @@
       <c r="Y18" s="11"/>
       <c r="Z18" s="11"/>
     </row>
-    <row r="19" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>4</v>
       </c>
@@ -5230,7 +5229,7 @@
       <c r="Y19" s="11"/>
       <c r="Z19" s="11"/>
     </row>
-    <row r="20" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>4</v>
       </c>
@@ -5290,7 +5289,7 @@
       <c r="Y20" s="11"/>
       <c r="Z20" s="11"/>
     </row>
-    <row r="21" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>4</v>
       </c>
@@ -5350,7 +5349,7 @@
       <c r="Y21" s="11"/>
       <c r="Z21" s="11"/>
     </row>
-    <row r="22" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -5410,7 +5409,7 @@
       <c r="Y22" s="11"/>
       <c r="Z22" s="11"/>
     </row>
-    <row r="23" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>4</v>
       </c>
@@ -5470,7 +5469,7 @@
       <c r="Y23" s="11"/>
       <c r="Z23" s="11"/>
     </row>
-    <row r="24" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>4</v>
       </c>
@@ -5530,7 +5529,7 @@
       <c r="Y24" s="11"/>
       <c r="Z24" s="11"/>
     </row>
-    <row r="25" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>4</v>
       </c>
@@ -5590,7 +5589,7 @@
       <c r="Y25" s="11"/>
       <c r="Z25" s="11"/>
     </row>
-    <row r="26" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>4</v>
       </c>
@@ -5650,7 +5649,7 @@
       <c r="Y26" s="11"/>
       <c r="Z26" s="11"/>
     </row>
-    <row r="27" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>4</v>
       </c>
@@ -5710,7 +5709,7 @@
       <c r="Y27" s="11"/>
       <c r="Z27" s="11"/>
     </row>
-    <row r="28" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>4</v>
       </c>
@@ -5770,7 +5769,7 @@
       <c r="Y28" s="11"/>
       <c r="Z28" s="11"/>
     </row>
-    <row r="29" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>4</v>
       </c>
@@ -5830,7 +5829,7 @@
       <c r="Y29" s="11"/>
       <c r="Z29" s="11"/>
     </row>
-    <row r="30" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>5</v>
       </c>
@@ -5890,7 +5889,7 @@
       <c r="Y30" s="11"/>
       <c r="Z30" s="11"/>
     </row>
-    <row r="31" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>6</v>
       </c>
@@ -5930,7 +5929,7 @@
       <c r="Y31" s="11"/>
       <c r="Z31" s="11"/>
     </row>
-    <row r="32" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>7</v>
       </c>
@@ -5988,7 +5987,7 @@
       <c r="Y32" s="11"/>
       <c r="Z32" s="11"/>
     </row>
-    <row r="33" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>7</v>
       </c>
@@ -6046,7 +6045,7 @@
       <c r="Y33" s="11"/>
       <c r="Z33" s="11"/>
     </row>
-    <row r="34" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>8</v>
       </c>
@@ -6104,7 +6103,7 @@
       <c r="Y34" s="11"/>
       <c r="Z34" s="11"/>
     </row>
-    <row r="35" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>8</v>
       </c>
@@ -6162,7 +6161,7 @@
       <c r="Y35" s="11"/>
       <c r="Z35" s="11"/>
     </row>
-    <row r="36" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>8</v>
       </c>
@@ -6220,7 +6219,7 @@
       <c r="Y36" s="11"/>
       <c r="Z36" s="11"/>
     </row>
-    <row r="37" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>8</v>
       </c>
@@ -6278,7 +6277,7 @@
       <c r="Y37" s="11"/>
       <c r="Z37" s="11"/>
     </row>
-    <row r="38" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>8</v>
       </c>
@@ -6336,7 +6335,7 @@
       <c r="Y38" s="11"/>
       <c r="Z38" s="11"/>
     </row>
-    <row r="39" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>8</v>
       </c>
@@ -6394,7 +6393,7 @@
       <c r="Y39" s="11"/>
       <c r="Z39" s="11"/>
     </row>
-    <row r="40" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>8</v>
       </c>
@@ -6452,7 +6451,7 @@
       <c r="Y40" s="11"/>
       <c r="Z40" s="11"/>
     </row>
-    <row r="41" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>8</v>
       </c>
@@ -6510,7 +6509,7 @@
       <c r="Y41" s="11"/>
       <c r="Z41" s="11"/>
     </row>
-    <row r="42" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>9</v>
       </c>
@@ -6570,7 +6569,7 @@
       <c r="Y42" s="11"/>
       <c r="Z42" s="11"/>
     </row>
-    <row r="43" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17">
         <v>10</v>
       </c>
@@ -6610,7 +6609,7 @@
       <c r="Y43" s="11"/>
       <c r="Z43" s="11"/>
     </row>
-    <row r="44" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>11</v>
       </c>
@@ -6668,7 +6667,7 @@
       <c r="Y44" s="11"/>
       <c r="Z44" s="11"/>
     </row>
-    <row r="45" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>12</v>
       </c>
@@ -6728,7 +6727,7 @@
       <c r="Y45" s="11"/>
       <c r="Z45" s="11"/>
     </row>
-    <row r="46" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>12</v>
       </c>
@@ -6788,7 +6787,7 @@
       <c r="Y46" s="11"/>
       <c r="Z46" s="11"/>
     </row>
-    <row r="47" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="3">
         <v>12</v>
       </c>
@@ -6848,7 +6847,7 @@
       <c r="Y47" s="11"/>
       <c r="Z47" s="11"/>
     </row>
-    <row r="48" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="3">
         <v>12</v>
       </c>
@@ -6908,7 +6907,7 @@
       <c r="Y48" s="11"/>
       <c r="Z48" s="11"/>
     </row>
-    <row r="49" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="3">
         <v>12</v>
       </c>
@@ -6968,7 +6967,7 @@
       <c r="Y49" s="11"/>
       <c r="Z49" s="11"/>
     </row>
-    <row r="50" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="3">
         <v>12</v>
       </c>
@@ -7028,7 +7027,7 @@
       <c r="Y50" s="11"/>
       <c r="Z50" s="11"/>
     </row>
-    <row r="51" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="3">
         <v>12</v>
       </c>
@@ -7088,7 +7087,7 @@
       <c r="Y51" s="11"/>
       <c r="Z51" s="11"/>
     </row>
-    <row r="52" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="3">
         <v>12</v>
       </c>
@@ -7148,7 +7147,7 @@
       <c r="Y52" s="11"/>
       <c r="Z52" s="11"/>
     </row>
-    <row r="53" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="3">
         <v>12</v>
       </c>
@@ -7208,7 +7207,7 @@
       <c r="Y53" s="11"/>
       <c r="Z53" s="11"/>
     </row>
-    <row r="54" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="3">
         <v>12</v>
       </c>
@@ -7268,7 +7267,7 @@
       <c r="Y54" s="11"/>
       <c r="Z54" s="11"/>
     </row>
-    <row r="55" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="3">
         <v>12</v>
       </c>
@@ -7328,7 +7327,7 @@
       <c r="Y55" s="11"/>
       <c r="Z55" s="11"/>
     </row>
-    <row r="56" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="3">
         <v>12</v>
       </c>
@@ -7388,7 +7387,7 @@
       <c r="Y56" s="11"/>
       <c r="Z56" s="11"/>
     </row>
-    <row r="57" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="3">
         <v>12</v>
       </c>
@@ -7448,7 +7447,7 @@
       <c r="Y57" s="11"/>
       <c r="Z57" s="11"/>
     </row>
-    <row r="58" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="3">
         <v>12</v>
       </c>
@@ -7508,7 +7507,7 @@
       <c r="Y58" s="11"/>
       <c r="Z58" s="11"/>
     </row>
-    <row r="59" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="3">
         <v>12</v>
       </c>
@@ -7568,7 +7567,7 @@
       <c r="Y59" s="11"/>
       <c r="Z59" s="11"/>
     </row>
-    <row r="60" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="3">
         <v>12</v>
       </c>
@@ -7628,7 +7627,7 @@
       <c r="Y60" s="11"/>
       <c r="Z60" s="11"/>
     </row>
-    <row r="61" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="3">
         <v>12</v>
       </c>
@@ -7688,7 +7687,7 @@
       <c r="Y61" s="11"/>
       <c r="Z61" s="11"/>
     </row>
-    <row r="62" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="3">
         <v>12</v>
       </c>
@@ -7748,7 +7747,7 @@
       <c r="Y62" s="11"/>
       <c r="Z62" s="11"/>
     </row>
-    <row r="63" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="3">
         <v>12</v>
       </c>
@@ -7808,7 +7807,7 @@
       <c r="Y63" s="11"/>
       <c r="Z63" s="11"/>
     </row>
-    <row r="64" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="3">
         <v>12</v>
       </c>
@@ -7868,7 +7867,7 @@
       <c r="Y64" s="11"/>
       <c r="Z64" s="11"/>
     </row>
-    <row r="65" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="3">
         <v>12</v>
       </c>
@@ -7928,7 +7927,7 @@
       <c r="Y65" s="11"/>
       <c r="Z65" s="11"/>
     </row>
-    <row r="66" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="3">
         <v>12</v>
       </c>
@@ -7988,7 +7987,7 @@
       <c r="Y66" s="11"/>
       <c r="Z66" s="11"/>
     </row>
-    <row r="67" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="3">
         <v>12</v>
       </c>
@@ -8048,7 +8047,7 @@
       <c r="Y67" s="11"/>
       <c r="Z67" s="11"/>
     </row>
-    <row r="68" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="3">
         <v>12</v>
       </c>
@@ -8108,7 +8107,7 @@
       <c r="Y68" s="11"/>
       <c r="Z68" s="11"/>
     </row>
-    <row r="69" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="3">
         <v>12</v>
       </c>
@@ -8168,7 +8167,7 @@
       <c r="Y69" s="11"/>
       <c r="Z69" s="11"/>
     </row>
-    <row r="70" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="3">
         <v>12</v>
       </c>
@@ -8228,7 +8227,7 @@
       <c r="Y70" s="11"/>
       <c r="Z70" s="11"/>
     </row>
-    <row r="71" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="3">
         <v>12</v>
       </c>
@@ -8288,7 +8287,7 @@
       <c r="Y71" s="11"/>
       <c r="Z71" s="11"/>
     </row>
-    <row r="72" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="3">
         <v>12</v>
       </c>
@@ -8348,7 +8347,7 @@
       <c r="Y72" s="11"/>
       <c r="Z72" s="11"/>
     </row>
-    <row r="73" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="3">
         <v>12</v>
       </c>
@@ -8408,7 +8407,7 @@
       <c r="Y73" s="11"/>
       <c r="Z73" s="11"/>
     </row>
-    <row r="74" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="45">
         <v>13</v>
       </c>
@@ -8468,7 +8467,7 @@
       <c r="Y74" s="11"/>
       <c r="Z74" s="11"/>
     </row>
-    <row r="75" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="3">
         <v>13</v>
       </c>
@@ -8528,7 +8527,7 @@
       <c r="Y75" s="11"/>
       <c r="Z75" s="11"/>
     </row>
-    <row r="76" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="3">
         <v>13</v>
       </c>
@@ -8588,7 +8587,7 @@
       <c r="Y76" s="11"/>
       <c r="Z76" s="11"/>
     </row>
-    <row r="77" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="3">
         <v>13</v>
       </c>
@@ -8648,7 +8647,7 @@
       <c r="Y77" s="11"/>
       <c r="Z77" s="11"/>
     </row>
-    <row r="78" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="3">
         <v>14</v>
       </c>
@@ -8706,7 +8705,7 @@
       <c r="Y78" s="11"/>
       <c r="Z78" s="11"/>
     </row>
-    <row r="79" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="3">
         <v>14</v>
       </c>
@@ -8764,7 +8763,7 @@
       <c r="Y79" s="11"/>
       <c r="Z79" s="11"/>
     </row>
-    <row r="80" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="3">
         <v>14</v>
       </c>
@@ -8822,7 +8821,7 @@
       <c r="Y80" s="11"/>
       <c r="Z80" s="11"/>
     </row>
-    <row r="81" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="3">
         <v>15</v>
       </c>
@@ -8882,7 +8881,7 @@
       <c r="Y81" s="11"/>
       <c r="Z81" s="11"/>
     </row>
-    <row r="82" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="3">
         <v>16</v>
       </c>
@@ -8940,7 +8939,7 @@
       <c r="Y82" s="11"/>
       <c r="Z82" s="11"/>
     </row>
-    <row r="83" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="3">
         <v>17</v>
       </c>
@@ -9000,7 +8999,7 @@
       <c r="Y83" s="11"/>
       <c r="Z83" s="11"/>
     </row>
-    <row r="84" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="3">
         <v>17</v>
       </c>
@@ -9060,7 +9059,7 @@
       <c r="Y84" s="11"/>
       <c r="Z84" s="11"/>
     </row>
-    <row r="85" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="3">
         <v>18</v>
       </c>
@@ -9118,7 +9117,7 @@
       <c r="Y85" s="11"/>
       <c r="Z85" s="11"/>
     </row>
-    <row r="86" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="3">
         <v>19</v>
       </c>
@@ -9176,7 +9175,7 @@
       <c r="Y86" s="11"/>
       <c r="Z86" s="11"/>
     </row>
-    <row r="87" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="3">
         <v>19</v>
       </c>
@@ -9234,7 +9233,7 @@
       <c r="Y87" s="11"/>
       <c r="Z87" s="11"/>
     </row>
-    <row r="88" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="3">
         <v>19</v>
       </c>
@@ -9292,7 +9291,7 @@
       <c r="Y88" s="11"/>
       <c r="Z88" s="11"/>
     </row>
-    <row r="89" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="3">
         <v>19</v>
       </c>
@@ -9350,7 +9349,7 @@
       <c r="Y89" s="11"/>
       <c r="Z89" s="11"/>
     </row>
-    <row r="90" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="3">
         <v>19</v>
       </c>
@@ -9408,7 +9407,7 @@
       <c r="Y90" s="11"/>
       <c r="Z90" s="11"/>
     </row>
-    <row r="91" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="3">
         <v>19</v>
       </c>
@@ -9466,7 +9465,7 @@
       <c r="Y91" s="11"/>
       <c r="Z91" s="11"/>
     </row>
-    <row r="92" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="3">
         <v>20</v>
       </c>
@@ -9522,7 +9521,7 @@
       <c r="Y92" s="11"/>
       <c r="Z92" s="11"/>
     </row>
-    <row r="93" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="3">
         <v>20</v>
       </c>
@@ -9578,7 +9577,7 @@
       <c r="Y93" s="11"/>
       <c r="Z93" s="11"/>
     </row>
-    <row r="94" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="3">
         <v>20</v>
       </c>
@@ -9634,7 +9633,7 @@
       <c r="Y94" s="11"/>
       <c r="Z94" s="11"/>
     </row>
-    <row r="95" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="3">
         <v>20</v>
       </c>
@@ -9690,7 +9689,7 @@
       <c r="Y95" s="11"/>
       <c r="Z95" s="11"/>
     </row>
-    <row r="96" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="3">
         <v>20</v>
       </c>
@@ -9746,7 +9745,7 @@
       <c r="Y96" s="11"/>
       <c r="Z96" s="11"/>
     </row>
-    <row r="97" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="3">
         <v>20</v>
       </c>
@@ -9802,7 +9801,7 @@
       <c r="Y97" s="11"/>
       <c r="Z97" s="11"/>
     </row>
-    <row r="98" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="3">
         <v>20</v>
       </c>
@@ -9858,7 +9857,7 @@
       <c r="Y98" s="11"/>
       <c r="Z98" s="11"/>
     </row>
-    <row r="99" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="3">
         <v>20</v>
       </c>
@@ -9914,7 +9913,7 @@
       <c r="Y99" s="11"/>
       <c r="Z99" s="11"/>
     </row>
-    <row r="100" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="3">
         <v>20</v>
       </c>
@@ -9970,7 +9969,7 @@
       <c r="Y100" s="11"/>
       <c r="Z100" s="11"/>
     </row>
-    <row r="101" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="3">
         <v>20</v>
       </c>
@@ -10026,7 +10025,7 @@
       <c r="Y101" s="11"/>
       <c r="Z101" s="11"/>
     </row>
-    <row r="102" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="3">
         <v>20</v>
       </c>
@@ -10082,7 +10081,7 @@
       <c r="Y102" s="11"/>
       <c r="Z102" s="11"/>
     </row>
-    <row r="103" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="3">
         <v>20</v>
       </c>
@@ -10138,7 +10137,7 @@
       <c r="Y103" s="11"/>
       <c r="Z103" s="11"/>
     </row>
-    <row r="104" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="3">
         <v>20</v>
       </c>
@@ -10194,7 +10193,7 @@
       <c r="Y104" s="11"/>
       <c r="Z104" s="11"/>
     </row>
-    <row r="105" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="3">
         <v>20</v>
       </c>
@@ -10250,7 +10249,7 @@
       <c r="Y105" s="11"/>
       <c r="Z105" s="11"/>
     </row>
-    <row r="106" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="3">
         <v>20</v>
       </c>
@@ -10306,7 +10305,7 @@
       <c r="Y106" s="11"/>
       <c r="Z106" s="11"/>
     </row>
-    <row r="107" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="3">
         <v>21</v>
       </c>
@@ -10346,7 +10345,7 @@
       <c r="Y107" s="11"/>
       <c r="Z107" s="11"/>
     </row>
-    <row r="108" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="3">
         <v>22</v>
       </c>
@@ -10406,7 +10405,7 @@
       <c r="Y108" s="11"/>
       <c r="Z108" s="11"/>
     </row>
-    <row r="109" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="3">
         <v>23</v>
       </c>
@@ -10462,7 +10461,7 @@
       <c r="Y109" s="11"/>
       <c r="Z109" s="11"/>
     </row>
-    <row r="110" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="3">
         <v>24</v>
       </c>
@@ -10518,7 +10517,7 @@
       <c r="Y110" s="11"/>
       <c r="Z110" s="11"/>
     </row>
-    <row r="111" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="3">
         <v>24</v>
       </c>
@@ -10574,7 +10573,7 @@
       <c r="Y111" s="11"/>
       <c r="Z111" s="11"/>
     </row>
-    <row r="112" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="3">
         <v>24</v>
       </c>
@@ -10630,7 +10629,7 @@
       <c r="Y112" s="11"/>
       <c r="Z112" s="11"/>
     </row>
-    <row r="113" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="3">
         <v>25</v>
       </c>
@@ -10690,7 +10689,7 @@
       <c r="Y113" s="11"/>
       <c r="Z113" s="11"/>
     </row>
-    <row r="114" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="3">
         <v>25</v>
       </c>
@@ -10750,7 +10749,7 @@
       <c r="Y114" s="11"/>
       <c r="Z114" s="11"/>
     </row>
-    <row r="115" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="3">
         <v>25</v>
       </c>
@@ -10810,7 +10809,7 @@
       <c r="Y115" s="11"/>
       <c r="Z115" s="11"/>
     </row>
-    <row r="116" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="3">
         <v>25</v>
       </c>
@@ -10870,7 +10869,7 @@
       <c r="Y116" s="11"/>
       <c r="Z116" s="11"/>
     </row>
-    <row r="117" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="3">
         <v>25</v>
       </c>
@@ -10930,7 +10929,7 @@
       <c r="Y117" s="11"/>
       <c r="Z117" s="11"/>
     </row>
-    <row r="118" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="3">
         <v>26</v>
       </c>
@@ -10992,7 +10991,7 @@
       <c r="Y118" s="11"/>
       <c r="Z118" s="11"/>
     </row>
-    <row r="119" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="3">
         <v>26</v>
       </c>
@@ -11054,7 +11053,7 @@
       <c r="Y119" s="11"/>
       <c r="Z119" s="11"/>
     </row>
-    <row r="120" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="3">
         <v>26</v>
       </c>
@@ -11116,7 +11115,7 @@
       <c r="Y120" s="11"/>
       <c r="Z120" s="11"/>
     </row>
-    <row r="121" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="3">
         <v>26</v>
       </c>
@@ -11178,7 +11177,7 @@
       <c r="Y121" s="11"/>
       <c r="Z121" s="11"/>
     </row>
-    <row r="122" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="3">
         <v>26</v>
       </c>
@@ -11240,7 +11239,7 @@
       <c r="Y122" s="11"/>
       <c r="Z122" s="11"/>
     </row>
-    <row r="123" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="3">
         <v>26</v>
       </c>
@@ -11302,7 +11301,7 @@
       <c r="Y123" s="11"/>
       <c r="Z123" s="11"/>
     </row>
-    <row r="124" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="3">
         <v>26</v>
       </c>
@@ -11364,7 +11363,7 @@
       <c r="Y124" s="11"/>
       <c r="Z124" s="11"/>
     </row>
-    <row r="125" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="3">
         <v>26</v>
       </c>
@@ -11426,7 +11425,7 @@
       <c r="Y125" s="11"/>
       <c r="Z125" s="11"/>
     </row>
-    <row r="126" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="3">
         <v>26</v>
       </c>
@@ -11488,7 +11487,7 @@
       <c r="Y126" s="11"/>
       <c r="Z126" s="11"/>
     </row>
-    <row r="127" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="3">
         <v>26</v>
       </c>
@@ -11550,7 +11549,7 @@
       <c r="Y127" s="11"/>
       <c r="Z127" s="11"/>
     </row>
-    <row r="128" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="3">
         <v>26</v>
       </c>
@@ -11612,7 +11611,7 @@
       <c r="Y128" s="11"/>
       <c r="Z128" s="11"/>
     </row>
-    <row r="129" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="3">
         <v>26</v>
       </c>
@@ -11674,7 +11673,7 @@
       <c r="Y129" s="11"/>
       <c r="Z129" s="11"/>
     </row>
-    <row r="130" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="3">
         <v>26</v>
       </c>
@@ -11736,7 +11735,7 @@
       <c r="Y130" s="11"/>
       <c r="Z130" s="11"/>
     </row>
-    <row r="131" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="3">
         <v>26</v>
       </c>
@@ -11798,7 +11797,7 @@
       <c r="Y131" s="11"/>
       <c r="Z131" s="11"/>
     </row>
-    <row r="132" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="3">
         <v>26</v>
       </c>
@@ -11860,7 +11859,7 @@
       <c r="Y132" s="11"/>
       <c r="Z132" s="11"/>
     </row>
-    <row r="133" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="3">
         <v>26</v>
       </c>
@@ -11920,7 +11919,7 @@
       <c r="Y133" s="11"/>
       <c r="Z133" s="11"/>
     </row>
-    <row r="134" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="3">
         <v>27</v>
       </c>
@@ -11978,7 +11977,7 @@
       <c r="Y134" s="11"/>
       <c r="Z134" s="11"/>
     </row>
-    <row r="135" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="3">
         <v>28</v>
       </c>
@@ -12040,7 +12039,7 @@
       <c r="Y135" s="11"/>
       <c r="Z135" s="11"/>
     </row>
-    <row r="136" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="3">
         <v>28</v>
       </c>
@@ -12102,7 +12101,7 @@
       <c r="Y136" s="11"/>
       <c r="Z136" s="11"/>
     </row>
-    <row r="137" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="3">
         <v>28</v>
       </c>
@@ -12164,7 +12163,7 @@
       <c r="Y137" s="11"/>
       <c r="Z137" s="11"/>
     </row>
-    <row r="138" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="3">
         <v>28</v>
       </c>
@@ -12226,7 +12225,7 @@
       <c r="Y138" s="11"/>
       <c r="Z138" s="11"/>
     </row>
-    <row r="139" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="3">
         <v>28</v>
       </c>
@@ -12288,7 +12287,7 @@
       <c r="Y139" s="11"/>
       <c r="Z139" s="11"/>
     </row>
-    <row r="140" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="3">
         <v>28</v>
       </c>
@@ -12350,7 +12349,7 @@
       <c r="Y140" s="11"/>
       <c r="Z140" s="11"/>
     </row>
-    <row r="141" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="3">
         <v>28</v>
       </c>
@@ -12412,7 +12411,7 @@
       <c r="Y141" s="11"/>
       <c r="Z141" s="11"/>
     </row>
-    <row r="142" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="3">
         <v>28</v>
       </c>
@@ -12474,7 +12473,7 @@
       <c r="Y142" s="11"/>
       <c r="Z142" s="11"/>
     </row>
-    <row r="143" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="3">
         <v>28</v>
       </c>
@@ -12536,7 +12535,7 @@
       <c r="Y143" s="11"/>
       <c r="Z143" s="11"/>
     </row>
-    <row r="144" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="3">
         <v>28</v>
       </c>
@@ -12598,7 +12597,7 @@
       <c r="Y144" s="11"/>
       <c r="Z144" s="11"/>
     </row>
-    <row r="145" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="3">
         <v>28</v>
       </c>
@@ -12660,7 +12659,7 @@
       <c r="Y145" s="11"/>
       <c r="Z145" s="11"/>
     </row>
-    <row r="146" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="3">
         <v>28</v>
       </c>
@@ -12722,7 +12721,7 @@
       <c r="Y146" s="11"/>
       <c r="Z146" s="11"/>
     </row>
-    <row r="147" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="3">
         <v>28</v>
       </c>
@@ -12784,7 +12783,7 @@
       <c r="Y147" s="11"/>
       <c r="Z147" s="11"/>
     </row>
-    <row r="148" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="3">
         <v>28</v>
       </c>
@@ -12846,7 +12845,7 @@
       <c r="Y148" s="11"/>
       <c r="Z148" s="11"/>
     </row>
-    <row r="149" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="3">
         <v>28</v>
       </c>
@@ -12908,7 +12907,7 @@
       <c r="Y149" s="11"/>
       <c r="Z149" s="11"/>
     </row>
-    <row r="150" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="3">
         <v>28</v>
       </c>
@@ -12970,7 +12969,7 @@
       <c r="Y150" s="11"/>
       <c r="Z150" s="11"/>
     </row>
-    <row r="151" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="3">
         <v>28</v>
       </c>
@@ -13032,7 +13031,7 @@
       <c r="Y151" s="11"/>
       <c r="Z151" s="11"/>
     </row>
-    <row r="152" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="3">
         <v>28</v>
       </c>
@@ -13094,7 +13093,7 @@
       <c r="Y152" s="11"/>
       <c r="Z152" s="11"/>
     </row>
-    <row r="153" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="3">
         <v>28</v>
       </c>
@@ -13156,7 +13155,7 @@
       <c r="Y153" s="11"/>
       <c r="Z153" s="11"/>
     </row>
-    <row r="154" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="3">
         <v>28</v>
       </c>
@@ -13218,7 +13217,7 @@
       <c r="Y154" s="11"/>
       <c r="Z154" s="11"/>
     </row>
-    <row r="155" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="3">
         <v>28</v>
       </c>
@@ -13278,7 +13277,7 @@
       <c r="Y155" s="11"/>
       <c r="Z155" s="11"/>
     </row>
-    <row r="156" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="3">
         <v>28</v>
       </c>
@@ -13338,7 +13337,7 @@
       <c r="Y156" s="11"/>
       <c r="Z156" s="11"/>
     </row>
-    <row r="157" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="3">
         <v>29</v>
       </c>
@@ -13378,7 +13377,7 @@
       <c r="Y157" s="11"/>
       <c r="Z157" s="11"/>
     </row>
-    <row r="158" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="3">
         <v>30</v>
       </c>
@@ -13436,7 +13435,7 @@
       <c r="Y158" s="11"/>
       <c r="Z158" s="11"/>
     </row>
-    <row r="159" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="3">
         <v>31</v>
       </c>
@@ -13494,7 +13493,7 @@
       <c r="Y159" s="11"/>
       <c r="Z159" s="11"/>
     </row>
-    <row r="160" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="3">
         <v>31</v>
       </c>
@@ -13552,7 +13551,7 @@
       <c r="Y160" s="11"/>
       <c r="Z160" s="11"/>
     </row>
-    <row r="161" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="3">
         <v>31</v>
       </c>
@@ -13610,7 +13609,7 @@
       <c r="Y161" s="11"/>
       <c r="Z161" s="11"/>
     </row>
-    <row r="162" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="3">
         <v>31</v>
       </c>
@@ -13670,7 +13669,7 @@
       <c r="Y162" s="11"/>
       <c r="Z162" s="11"/>
     </row>
-    <row r="163" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="3">
         <v>31</v>
       </c>
@@ -13730,7 +13729,7 @@
       <c r="Y163" s="11"/>
       <c r="Z163" s="11"/>
     </row>
-    <row r="164" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="3">
         <v>31</v>
       </c>
@@ -13790,7 +13789,7 @@
       <c r="Y164" s="11"/>
       <c r="Z164" s="11"/>
     </row>
-    <row r="165" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="3">
         <v>31</v>
       </c>
@@ -13850,7 +13849,7 @@
       <c r="Y165" s="11"/>
       <c r="Z165" s="11"/>
     </row>
-    <row r="166" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="3">
         <v>31</v>
       </c>
@@ -13910,7 +13909,7 @@
       <c r="Y166" s="11"/>
       <c r="Z166" s="11"/>
     </row>
-    <row r="167" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="3">
         <v>31</v>
       </c>
@@ -13970,7 +13969,7 @@
       <c r="Y167" s="11"/>
       <c r="Z167" s="11"/>
     </row>
-    <row r="168" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="3">
         <v>31</v>
       </c>
@@ -14030,7 +14029,7 @@
       <c r="Y168" s="11"/>
       <c r="Z168" s="11"/>
     </row>
-    <row r="169" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="3">
         <v>31</v>
       </c>
@@ -14090,7 +14089,7 @@
       <c r="Y169" s="11"/>
       <c r="Z169" s="11"/>
     </row>
-    <row r="170" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="3">
         <v>31</v>
       </c>
@@ -14150,7 +14149,7 @@
       <c r="Y170" s="11"/>
       <c r="Z170" s="11"/>
     </row>
-    <row r="171" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="3">
         <v>31</v>
       </c>
@@ -14210,7 +14209,7 @@
       <c r="Y171" s="11"/>
       <c r="Z171" s="11"/>
     </row>
-    <row r="172" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="3">
         <v>31</v>
       </c>
@@ -14270,7 +14269,7 @@
       <c r="Y172" s="11"/>
       <c r="Z172" s="11"/>
     </row>
-    <row r="173" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="3">
         <v>31</v>
       </c>
@@ -14330,7 +14329,7 @@
       <c r="Y173" s="11"/>
       <c r="Z173" s="11"/>
     </row>
-    <row r="174" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="3">
         <v>32</v>
       </c>
@@ -14388,7 +14387,7 @@
       <c r="Y174" s="11"/>
       <c r="Z174" s="11"/>
     </row>
-    <row r="175" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="3">
         <v>32</v>
       </c>
@@ -14446,7 +14445,7 @@
       <c r="Y175" s="11"/>
       <c r="Z175" s="11"/>
     </row>
-    <row r="176" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="3">
         <v>33</v>
       </c>
@@ -14506,7 +14505,7 @@
       <c r="Y176" s="11"/>
       <c r="Z176" s="11"/>
     </row>
-    <row r="177" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="3">
         <v>33</v>
       </c>
@@ -14566,7 +14565,7 @@
       <c r="Y177" s="11"/>
       <c r="Z177" s="11"/>
     </row>
-    <row r="178" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="3">
         <v>34</v>
       </c>
@@ -14626,7 +14625,7 @@
       <c r="Y178" s="11"/>
       <c r="Z178" s="11"/>
     </row>
-    <row r="179" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="3">
         <v>35</v>
       </c>
@@ -14686,7 +14685,7 @@
       <c r="Y179" s="11"/>
       <c r="Z179" s="11"/>
     </row>
-    <row r="180" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="3">
         <v>36</v>
       </c>
@@ -14748,7 +14747,7 @@
       <c r="Y180" s="11"/>
       <c r="Z180" s="11"/>
     </row>
-    <row r="181" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="3">
         <v>36</v>
       </c>
@@ -14810,7 +14809,7 @@
       <c r="Y181" s="11"/>
       <c r="Z181" s="11"/>
     </row>
-    <row r="182" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="3">
         <v>36</v>
       </c>
@@ -14872,7 +14871,7 @@
       <c r="Y182" s="11"/>
       <c r="Z182" s="11"/>
     </row>
-    <row r="183" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="3">
         <v>36</v>
       </c>
@@ -14934,7 +14933,7 @@
       <c r="Y183" s="11"/>
       <c r="Z183" s="11"/>
     </row>
-    <row r="184" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="45">
         <v>37</v>
       </c>
@@ -14994,7 +14993,7 @@
       <c r="Y184" s="11"/>
       <c r="Z184" s="11"/>
     </row>
-    <row r="185" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="3">
         <v>37</v>
       </c>
@@ -15054,7 +15053,7 @@
       <c r="Y185" s="11"/>
       <c r="Z185" s="11"/>
     </row>
-    <row r="186" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="3">
         <v>37</v>
       </c>
@@ -15114,7 +15113,7 @@
       <c r="Y186" s="11"/>
       <c r="Z186" s="11"/>
     </row>
-    <row r="187" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="3">
         <v>37</v>
       </c>
@@ -15174,7 +15173,7 @@
       <c r="Y187" s="11"/>
       <c r="Z187" s="11"/>
     </row>
-    <row r="188" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="3">
         <v>37</v>
       </c>
@@ -15234,7 +15233,7 @@
       <c r="Y188" s="11"/>
       <c r="Z188" s="11"/>
     </row>
-    <row r="189" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="3">
         <v>38</v>
       </c>
@@ -15292,7 +15291,7 @@
       <c r="Y189" s="11"/>
       <c r="Z189" s="11"/>
     </row>
-    <row r="190" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="3">
         <v>39</v>
       </c>
@@ -15332,7 +15331,7 @@
       <c r="Y190" s="11"/>
       <c r="Z190" s="11"/>
     </row>
-    <row r="191" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="3">
         <v>40</v>
       </c>
@@ -15388,7 +15387,7 @@
       <c r="Y191" s="11"/>
       <c r="Z191" s="11"/>
     </row>
-    <row r="192" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="3">
         <v>41</v>
       </c>
@@ -15448,7 +15447,7 @@
       <c r="Y192" s="11"/>
       <c r="Z192" s="11"/>
     </row>
-    <row r="193" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="3">
         <v>41</v>
       </c>
@@ -15508,7 +15507,7 @@
       <c r="Y193" s="11"/>
       <c r="Z193" s="11"/>
     </row>
-    <row r="194" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="3">
         <v>41</v>
       </c>
@@ -15570,7 +15569,7 @@
       <c r="Y194" s="11"/>
       <c r="Z194" s="11"/>
     </row>
-    <row r="195" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="3">
         <v>41</v>
       </c>
@@ -15632,7 +15631,7 @@
       <c r="Y195" s="11"/>
       <c r="Z195" s="11"/>
     </row>
-    <row r="196" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="3">
         <v>41</v>
       </c>
@@ -15692,7 +15691,7 @@
       <c r="Y196" s="11"/>
       <c r="Z196" s="11"/>
     </row>
-    <row r="197" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="3">
         <v>41</v>
       </c>
@@ -15754,7 +15753,7 @@
       <c r="Y197" s="11"/>
       <c r="Z197" s="11"/>
     </row>
-    <row r="198" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="3">
         <v>41</v>
       </c>
@@ -15816,7 +15815,7 @@
       <c r="Y198" s="11"/>
       <c r="Z198" s="11"/>
     </row>
-    <row r="199" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="3">
         <v>41</v>
       </c>
@@ -15876,7 +15875,7 @@
       <c r="Y199" s="11"/>
       <c r="Z199" s="11"/>
     </row>
-    <row r="200" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="3">
         <v>41</v>
       </c>
@@ -15936,7 +15935,7 @@
       <c r="Y200" s="11"/>
       <c r="Z200" s="11"/>
     </row>
-    <row r="201" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="3">
         <v>41</v>
       </c>
@@ -15996,7 +15995,7 @@
       <c r="Y201" s="11"/>
       <c r="Z201" s="11"/>
     </row>
-    <row r="202" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="3">
         <v>41</v>
       </c>
@@ -16056,7 +16055,7 @@
       <c r="Y202" s="11"/>
       <c r="Z202" s="11"/>
     </row>
-    <row r="203" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="3">
         <v>41</v>
       </c>
@@ -16116,7 +16115,7 @@
       <c r="Y203" s="11"/>
       <c r="Z203" s="11"/>
     </row>
-    <row r="204" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="3">
         <v>41</v>
       </c>
@@ -16176,7 +16175,7 @@
       <c r="Y204" s="11"/>
       <c r="Z204" s="11"/>
     </row>
-    <row r="205" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="3">
         <v>41</v>
       </c>
@@ -16236,7 +16235,7 @@
       <c r="Y205" s="11"/>
       <c r="Z205" s="11"/>
     </row>
-    <row r="206" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="3">
         <v>42</v>
       </c>
@@ -16294,7 +16293,7 @@
       <c r="Y206" s="11"/>
       <c r="Z206" s="11"/>
     </row>
-    <row r="207" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="3">
         <v>42</v>
       </c>
@@ -16352,7 +16351,7 @@
       <c r="Y207" s="11"/>
       <c r="Z207" s="11"/>
     </row>
-    <row r="208" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="3">
         <v>42</v>
       </c>
@@ -16412,7 +16411,7 @@
       <c r="Y208" s="11"/>
       <c r="Z208" s="11"/>
     </row>
-    <row r="209" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="3">
         <v>42</v>
       </c>
@@ -16472,7 +16471,7 @@
       <c r="Y209" s="11"/>
       <c r="Z209" s="11"/>
     </row>
-    <row r="210" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="3">
         <v>42</v>
       </c>
@@ -16532,7 +16531,7 @@
       <c r="Y210" s="11"/>
       <c r="Z210" s="11"/>
     </row>
-    <row r="211" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="3">
         <v>43</v>
       </c>
@@ -16592,7 +16591,7 @@
       <c r="Y211" s="11"/>
       <c r="Z211" s="11"/>
     </row>
-    <row r="212" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="3">
         <v>43</v>
       </c>
@@ -16652,7 +16651,7 @@
       <c r="Y212" s="11"/>
       <c r="Z212" s="11"/>
     </row>
-    <row r="213" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="3">
         <v>43</v>
       </c>
@@ -16712,7 +16711,7 @@
       <c r="Y213" s="11"/>
       <c r="Z213" s="11"/>
     </row>
-    <row r="214" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="3">
         <v>43</v>
       </c>
@@ -16772,7 +16771,7 @@
       <c r="Y214" s="11"/>
       <c r="Z214" s="11"/>
     </row>
-    <row r="215" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="3">
         <v>43</v>
       </c>
@@ -16832,7 +16831,7 @@
       <c r="Y215" s="11"/>
       <c r="Z215" s="11"/>
     </row>
-    <row r="216" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="3">
         <v>43</v>
       </c>
@@ -16892,7 +16891,7 @@
       <c r="Y216" s="11"/>
       <c r="Z216" s="11"/>
     </row>
-    <row r="217" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="3">
         <v>43</v>
       </c>
@@ -16952,7 +16951,7 @@
       <c r="Y217" s="11"/>
       <c r="Z217" s="11"/>
     </row>
-    <row r="218" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="3">
         <v>43</v>
       </c>
@@ -17012,7 +17011,7 @@
       <c r="Y218" s="11"/>
       <c r="Z218" s="11"/>
     </row>
-    <row r="219" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="3">
         <v>43</v>
       </c>
@@ -17072,7 +17071,7 @@
       <c r="Y219" s="11"/>
       <c r="Z219" s="11"/>
     </row>
-    <row r="220" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="3">
         <v>43</v>
       </c>
@@ -17132,7 +17131,7 @@
       <c r="Y220" s="11"/>
       <c r="Z220" s="11"/>
     </row>
-    <row r="221" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="3">
         <v>43</v>
       </c>
@@ -17190,7 +17189,7 @@
       <c r="Y221" s="11"/>
       <c r="Z221" s="11"/>
     </row>
-    <row r="222" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="3">
         <v>43</v>
       </c>
@@ -17248,7 +17247,7 @@
       <c r="Y222" s="11"/>
       <c r="Z222" s="11"/>
     </row>
-    <row r="223" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="3">
         <v>43</v>
       </c>
@@ -17306,7 +17305,7 @@
       <c r="Y223" s="11"/>
       <c r="Z223" s="11"/>
     </row>
-    <row r="224" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="3">
         <v>44</v>
       </c>
@@ -17364,7 +17363,7 @@
       <c r="Y224" s="11"/>
       <c r="Z224" s="11"/>
     </row>
-    <row r="225" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="3">
         <v>45</v>
       </c>
@@ -17422,7 +17421,7 @@
       <c r="Y225" s="11"/>
       <c r="Z225" s="11"/>
     </row>
-    <row r="226" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="3">
         <v>45</v>
       </c>
@@ -17480,7 +17479,7 @@
       <c r="Y226" s="11"/>
       <c r="Z226" s="11"/>
     </row>
-    <row r="227" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="3">
         <v>45</v>
       </c>
@@ -17538,7 +17537,7 @@
       <c r="Y227" s="11"/>
       <c r="Z227" s="11"/>
     </row>
-    <row r="228" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="3">
         <v>46</v>
       </c>
@@ -17596,7 +17595,7 @@
       <c r="Y228" s="11"/>
       <c r="Z228" s="11"/>
     </row>
-    <row r="229" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="3">
         <v>47</v>
       </c>
@@ -17654,7 +17653,7 @@
       <c r="Y229" s="11"/>
       <c r="Z229" s="11"/>
     </row>
-    <row r="230" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="3">
         <v>48</v>
       </c>
@@ -17714,7 +17713,7 @@
       <c r="Y230" s="11"/>
       <c r="Z230" s="11"/>
     </row>
-    <row r="231" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="3">
         <v>48</v>
       </c>
@@ -17776,7 +17775,7 @@
       <c r="Y231" s="11"/>
       <c r="Z231" s="11"/>
     </row>
-    <row r="232" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="3">
         <v>48</v>
       </c>
@@ -17838,7 +17837,7 @@
       <c r="Y232" s="11"/>
       <c r="Z232" s="11"/>
     </row>
-    <row r="233" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="3">
         <v>48</v>
       </c>
@@ -17900,7 +17899,7 @@
       <c r="Y233" s="11"/>
       <c r="Z233" s="11"/>
     </row>
-    <row r="234" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="3">
         <v>48</v>
       </c>
@@ -17962,7 +17961,7 @@
       <c r="Y234" s="11"/>
       <c r="Z234" s="11"/>
     </row>
-    <row r="235" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="3">
         <v>48</v>
       </c>
@@ -18024,7 +18023,7 @@
       <c r="Y235" s="11"/>
       <c r="Z235" s="11"/>
     </row>
-    <row r="236" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="3">
         <v>48</v>
       </c>
@@ -18086,7 +18085,7 @@
       <c r="Y236" s="11"/>
       <c r="Z236" s="11"/>
     </row>
-    <row r="237" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="3">
         <v>48</v>
       </c>
@@ -18146,7 +18145,7 @@
       <c r="Y237" s="11"/>
       <c r="Z237" s="11"/>
     </row>
-    <row r="238" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="3">
         <v>48</v>
       </c>
@@ -18206,7 +18205,7 @@
       <c r="Y238" s="11"/>
       <c r="Z238" s="11"/>
     </row>
-    <row r="239" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="3">
         <v>49</v>
       </c>
@@ -18268,7 +18267,7 @@
       <c r="Y239" s="11"/>
       <c r="Z239" s="11"/>
     </row>
-    <row r="240" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="3">
         <v>49</v>
       </c>
@@ -18330,7 +18329,7 @@
       <c r="Y240" s="11"/>
       <c r="Z240" s="11"/>
     </row>
-    <row r="241" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="3">
         <v>49</v>
       </c>
@@ -18392,7 +18391,7 @@
       <c r="Y241" s="11"/>
       <c r="Z241" s="11"/>
     </row>
-    <row r="242" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="3">
         <v>49</v>
       </c>
@@ -18452,7 +18451,7 @@
       <c r="Y242" s="11"/>
       <c r="Z242" s="11"/>
     </row>
-    <row r="243" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="3">
         <v>49</v>
       </c>
@@ -18512,7 +18511,7 @@
       <c r="Y243" s="11"/>
       <c r="Z243" s="11"/>
     </row>
-    <row r="244" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="3">
         <v>50</v>
       </c>
@@ -18572,7 +18571,7 @@
       <c r="Y244" s="11"/>
       <c r="Z244" s="11"/>
     </row>
-    <row r="245" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="3">
         <v>50</v>
       </c>
@@ -18632,7 +18631,7 @@
       <c r="Y245" s="11"/>
       <c r="Z245" s="11"/>
     </row>
-    <row r="246" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="3">
         <v>50</v>
       </c>
@@ -18694,7 +18693,7 @@
       <c r="Y246" s="11"/>
       <c r="Z246" s="11"/>
     </row>
-    <row r="247" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="3">
         <v>50</v>
       </c>
@@ -18756,7 +18755,7 @@
       <c r="Y247" s="11"/>
       <c r="Z247" s="11"/>
     </row>
-    <row r="248" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="3">
         <v>50</v>
       </c>
@@ -18816,7 +18815,7 @@
       <c r="Y248" s="11"/>
       <c r="Z248" s="11"/>
     </row>
-    <row r="249" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="3">
         <v>51</v>
       </c>
@@ -18856,7 +18855,7 @@
       <c r="Y249" s="11"/>
       <c r="Z249" s="11"/>
     </row>
-    <row r="250" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="3">
         <v>52</v>
       </c>
@@ -18916,7 +18915,7 @@
       <c r="Y250" s="11"/>
       <c r="Z250" s="11"/>
     </row>
-    <row r="251" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="3">
         <v>52</v>
       </c>
@@ -18976,7 +18975,7 @@
       <c r="Y251" s="11"/>
       <c r="Z251" s="11"/>
     </row>
-    <row r="252" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="3">
         <v>52</v>
       </c>
@@ -19036,7 +19035,7 @@
       <c r="Y252" s="11"/>
       <c r="Z252" s="11"/>
     </row>
-    <row r="253" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="3">
         <v>52</v>
       </c>
@@ -19096,7 +19095,7 @@
       <c r="Y253" s="11"/>
       <c r="Z253" s="11"/>
     </row>
-    <row r="254" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="3">
         <v>53</v>
       </c>
@@ -19156,7 +19155,7 @@
       <c r="Y254" s="11"/>
       <c r="Z254" s="11"/>
     </row>
-    <row r="255" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="3">
         <v>54</v>
       </c>
@@ -19216,7 +19215,7 @@
       <c r="Y255" s="11"/>
       <c r="Z255" s="11"/>
     </row>
-    <row r="256" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="3">
         <v>54</v>
       </c>
@@ -19278,7 +19277,7 @@
       <c r="Y256" s="11"/>
       <c r="Z256" s="11"/>
     </row>
-    <row r="257" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="3">
         <v>54</v>
       </c>
@@ -19340,7 +19339,7 @@
       <c r="Y257" s="11"/>
       <c r="Z257" s="11"/>
     </row>
-    <row r="258" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="3">
         <v>54</v>
       </c>
@@ -19398,7 +19397,7 @@
       <c r="Y258" s="11"/>
       <c r="Z258" s="11"/>
     </row>
-    <row r="259" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="3">
         <v>55</v>
       </c>
@@ -19458,7 +19457,7 @@
       <c r="Y259" s="11"/>
       <c r="Z259" s="11"/>
     </row>
-    <row r="260" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="3">
         <v>55</v>
       </c>
@@ -19518,7 +19517,7 @@
       <c r="Y260" s="11"/>
       <c r="Z260" s="11"/>
     </row>
-    <row r="261" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="3">
         <v>56</v>
       </c>
@@ -19576,11 +19575,11 @@
       <c r="Y261" s="11"/>
       <c r="Z261" s="11"/>
     </row>
-    <row r="262" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="3">
         <v>57</v>
       </c>
-      <c r="B262" s="59" t="s">
+      <c r="B262" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C262" s="3" t="s">
@@ -19632,11 +19631,11 @@
       <c r="Y262" s="11"/>
       <c r="Z262" s="11"/>
     </row>
-    <row r="263" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="3">
         <v>57</v>
       </c>
-      <c r="B263" s="59" t="s">
+      <c r="B263" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C263" s="3" t="s">
@@ -19688,11 +19687,11 @@
       <c r="Y263" s="11"/>
       <c r="Z263" s="11"/>
     </row>
-    <row r="264" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="3">
         <v>57</v>
       </c>
-      <c r="B264" s="59" t="s">
+      <c r="B264" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C264" s="3" t="s">
@@ -19744,11 +19743,11 @@
       <c r="Y264" s="11"/>
       <c r="Z264" s="11"/>
     </row>
-    <row r="265" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="3">
         <v>57</v>
       </c>
-      <c r="B265" s="59" t="s">
+      <c r="B265" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C265" s="3" t="s">
@@ -19800,11 +19799,11 @@
       <c r="Y265" s="11"/>
       <c r="Z265" s="11"/>
     </row>
-    <row r="266" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="3">
         <v>57</v>
       </c>
-      <c r="B266" s="59" t="s">
+      <c r="B266" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C266" s="3" t="s">
@@ -19856,11 +19855,11 @@
       <c r="Y266" s="11"/>
       <c r="Z266" s="11"/>
     </row>
-    <row r="267" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="3">
         <v>57</v>
       </c>
-      <c r="B267" s="59" t="s">
+      <c r="B267" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C267" s="3" t="s">
@@ -19912,11 +19911,11 @@
       <c r="Y267" s="11"/>
       <c r="Z267" s="11"/>
     </row>
-    <row r="268" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="3">
         <v>57</v>
       </c>
-      <c r="B268" s="59" t="s">
+      <c r="B268" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C268" s="3" t="s">
@@ -19968,11 +19967,11 @@
       <c r="Y268" s="11"/>
       <c r="Z268" s="11"/>
     </row>
-    <row r="269" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="3">
         <v>57</v>
       </c>
-      <c r="B269" s="59" t="s">
+      <c r="B269" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C269" s="3" t="s">
@@ -20024,11 +20023,11 @@
       <c r="Y269" s="11"/>
       <c r="Z269" s="11"/>
     </row>
-    <row r="270" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="3">
         <v>57</v>
       </c>
-      <c r="B270" s="59" t="s">
+      <c r="B270" s="56" t="s">
         <v>638</v>
       </c>
       <c r="C270" s="3" t="s">
@@ -20080,7 +20079,7 @@
       <c r="Y270" s="11"/>
       <c r="Z270" s="11"/>
     </row>
-    <row r="271" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="3">
         <v>58</v>
       </c>
@@ -20142,7 +20141,7 @@
       <c r="Y271" s="11"/>
       <c r="Z271" s="11"/>
     </row>
-    <row r="272" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="3">
         <v>58</v>
       </c>
@@ -20204,7 +20203,7 @@
       <c r="Y272" s="11"/>
       <c r="Z272" s="11"/>
     </row>
-    <row r="273" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="3">
         <v>58</v>
       </c>
@@ -20266,7 +20265,7 @@
       <c r="Y273" s="11"/>
       <c r="Z273" s="11"/>
     </row>
-    <row r="274" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="3">
         <v>58</v>
       </c>
@@ -20328,7 +20327,7 @@
       <c r="Y274" s="11"/>
       <c r="Z274" s="11"/>
     </row>
-    <row r="275" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="3">
         <v>58</v>
       </c>
@@ -20390,7 +20389,7 @@
       <c r="Y275" s="11"/>
       <c r="Z275" s="11"/>
     </row>
-    <row r="276" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="3">
         <v>58</v>
       </c>
@@ -20452,7 +20451,7 @@
       <c r="Y276" s="11"/>
       <c r="Z276" s="11"/>
     </row>
-    <row r="277" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="3">
         <v>58</v>
       </c>
@@ -20512,7 +20511,7 @@
       <c r="Y277" s="11"/>
       <c r="Z277" s="11"/>
     </row>
-    <row r="278" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="3">
         <v>58</v>
       </c>
@@ -20572,7 +20571,7 @@
       <c r="Y278" s="11"/>
       <c r="Z278" s="11"/>
     </row>
-    <row r="279" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="3">
         <v>59</v>
       </c>
@@ -20634,7 +20633,7 @@
       <c r="Y279" s="11"/>
       <c r="Z279" s="11"/>
     </row>
-    <row r="280" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="3">
         <v>59</v>
       </c>
@@ -20696,7 +20695,7 @@
       <c r="Y280" s="11"/>
       <c r="Z280" s="11"/>
     </row>
-    <row r="281" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="3">
         <v>59</v>
       </c>
@@ -20758,7 +20757,7 @@
       <c r="Y281" s="11"/>
       <c r="Z281" s="11"/>
     </row>
-    <row r="282" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="3">
         <v>59</v>
       </c>
@@ -20820,7 +20819,7 @@
       <c r="Y282" s="11"/>
       <c r="Z282" s="11"/>
     </row>
-    <row r="283" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="3">
         <v>59</v>
       </c>
@@ -20882,7 +20881,7 @@
       <c r="Y283" s="11"/>
       <c r="Z283" s="11"/>
     </row>
-    <row r="284" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="3">
         <v>59</v>
       </c>
@@ -20944,7 +20943,7 @@
       <c r="Y284" s="11"/>
       <c r="Z284" s="11"/>
     </row>
-    <row r="285" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="3">
         <v>59</v>
       </c>
@@ -21006,7 +21005,7 @@
       <c r="Y285" s="11"/>
       <c r="Z285" s="11"/>
     </row>
-    <row r="286" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="3">
         <v>59</v>
       </c>
@@ -21068,7 +21067,7 @@
       <c r="Y286" s="11"/>
       <c r="Z286" s="11"/>
     </row>
-    <row r="287" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="3">
         <v>59</v>
       </c>
@@ -21130,7 +21129,7 @@
       <c r="Y287" s="11"/>
       <c r="Z287" s="11"/>
     </row>
-    <row r="288" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="3">
         <v>59</v>
       </c>
@@ -21192,7 +21191,7 @@
       <c r="Y288" s="11"/>
       <c r="Z288" s="11"/>
     </row>
-    <row r="289" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="3">
         <v>59</v>
       </c>
@@ -21252,7 +21251,7 @@
       <c r="Y289" s="11"/>
       <c r="Z289" s="11"/>
     </row>
-    <row r="290" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="3">
         <v>59</v>
       </c>
@@ -21312,7 +21311,7 @@
       <c r="Y290" s="11"/>
       <c r="Z290" s="11"/>
     </row>
-    <row r="291" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="3">
         <v>60</v>
       </c>
@@ -21372,7 +21371,7 @@
       <c r="Y291" s="11"/>
       <c r="Z291" s="11"/>
     </row>
-    <row r="292" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="3">
         <v>61</v>
       </c>
@@ -21428,7 +21427,7 @@
       <c r="Y292" s="11"/>
       <c r="Z292" s="11"/>
     </row>
-    <row r="293" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="3">
         <v>61</v>
       </c>
@@ -21484,7 +21483,7 @@
       <c r="Y293" s="11"/>
       <c r="Z293" s="11"/>
     </row>
-    <row r="294" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="3">
         <v>61</v>
       </c>
@@ -21540,7 +21539,7 @@
       <c r="Y294" s="11"/>
       <c r="Z294" s="11"/>
     </row>
-    <row r="295" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="3">
         <v>61</v>
       </c>
@@ -21596,7 +21595,7 @@
       <c r="Y295" s="11"/>
       <c r="Z295" s="11"/>
     </row>
-    <row r="296" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="3">
         <v>61</v>
       </c>
@@ -21652,7 +21651,7 @@
       <c r="Y296" s="11"/>
       <c r="Z296" s="11"/>
     </row>
-    <row r="297" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="3">
         <v>61</v>
       </c>
@@ -21708,7 +21707,7 @@
       <c r="Y297" s="11"/>
       <c r="Z297" s="11"/>
     </row>
-    <row r="298" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="3">
         <v>61</v>
       </c>
@@ -21764,7 +21763,7 @@
       <c r="Y298" s="11"/>
       <c r="Z298" s="11"/>
     </row>
-    <row r="299" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="3">
         <v>62</v>
       </c>
@@ -21824,7 +21823,7 @@
       <c r="Y299" s="11"/>
       <c r="Z299" s="11"/>
     </row>
-    <row r="300" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="3">
         <v>63</v>
       </c>
@@ -21884,7 +21883,7 @@
       <c r="Y300" s="11"/>
       <c r="Z300" s="11"/>
     </row>
-    <row r="301" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="3">
         <v>63</v>
       </c>
@@ -21944,7 +21943,7 @@
       <c r="Y301" s="11"/>
       <c r="Z301" s="11"/>
     </row>
-    <row r="302" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="3">
         <v>63</v>
       </c>
@@ -22004,7 +22003,7 @@
       <c r="Y302" s="11"/>
       <c r="Z302" s="11"/>
     </row>
-    <row r="303" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="3">
         <v>64</v>
       </c>
@@ -22062,7 +22061,7 @@
       <c r="Y303" s="11"/>
       <c r="Z303" s="11"/>
     </row>
-    <row r="304" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="3">
         <v>65</v>
       </c>
@@ -22122,7 +22121,7 @@
       <c r="Y304" s="11"/>
       <c r="Z304" s="11"/>
     </row>
-    <row r="305" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="3">
         <v>66</v>
       </c>
@@ -22182,7 +22181,7 @@
       <c r="Y305" s="11"/>
       <c r="Z305" s="11"/>
     </row>
-    <row r="306" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="3">
         <v>66</v>
       </c>
@@ -22242,7 +22241,7 @@
       <c r="Y306" s="11"/>
       <c r="Z306" s="11"/>
     </row>
-    <row r="307" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="3">
         <v>66</v>
       </c>
@@ -22302,7 +22301,7 @@
       <c r="Y307" s="11"/>
       <c r="Z307" s="11"/>
     </row>
-    <row r="308" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="3">
         <v>67</v>
       </c>
@@ -22362,7 +22361,7 @@
       <c r="Y308" s="11"/>
       <c r="Z308" s="11"/>
     </row>
-    <row r="309" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="3">
         <v>67</v>
       </c>
@@ -22422,7 +22421,7 @@
       <c r="Y309" s="11"/>
       <c r="Z309" s="11"/>
     </row>
-    <row r="310" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="3">
         <v>67</v>
       </c>
@@ -22482,7 +22481,7 @@
       <c r="Y310" s="11"/>
       <c r="Z310" s="11"/>
     </row>
-    <row r="311" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="3">
         <v>68</v>
       </c>
@@ -22544,7 +22543,7 @@
       <c r="Y311" s="11"/>
       <c r="Z311" s="11"/>
     </row>
-    <row r="312" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="3">
         <v>68</v>
       </c>
@@ -22606,7 +22605,7 @@
       <c r="Y312" s="11"/>
       <c r="Z312" s="11"/>
     </row>
-    <row r="313" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="3">
         <v>68</v>
       </c>
@@ -22668,7 +22667,7 @@
       <c r="Y313" s="11"/>
       <c r="Z313" s="11"/>
     </row>
-    <row r="314" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="3">
         <v>68</v>
       </c>
@@ -22730,7 +22729,7 @@
       <c r="Y314" s="11"/>
       <c r="Z314" s="11"/>
     </row>
-    <row r="315" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="3">
         <v>68</v>
       </c>
@@ -22792,7 +22791,7 @@
       <c r="Y315" s="11"/>
       <c r="Z315" s="11"/>
     </row>
-    <row r="316" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="3">
         <v>68</v>
       </c>
@@ -22854,7 +22853,7 @@
       <c r="Y316" s="11"/>
       <c r="Z316" s="11"/>
     </row>
-    <row r="317" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="3">
         <v>68</v>
       </c>
@@ -22916,7 +22915,7 @@
       <c r="Y317" s="11"/>
       <c r="Z317" s="11"/>
     </row>
-    <row r="318" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="3">
         <v>68</v>
       </c>
@@ -22978,7 +22977,7 @@
       <c r="Y318" s="11"/>
       <c r="Z318" s="11"/>
     </row>
-    <row r="319" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="3">
         <v>68</v>
       </c>
@@ -23040,7 +23039,7 @@
       <c r="Y319" s="11"/>
       <c r="Z319" s="11"/>
     </row>
-    <row r="320" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="3">
         <v>68</v>
       </c>
@@ -23102,7 +23101,7 @@
       <c r="Y320" s="11"/>
       <c r="Z320" s="11"/>
     </row>
-    <row r="321" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="3">
         <v>68</v>
       </c>
@@ -23164,7 +23163,7 @@
       <c r="Y321" s="11"/>
       <c r="Z321" s="11"/>
     </row>
-    <row r="322" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="3">
         <v>68</v>
       </c>
@@ -23226,7 +23225,7 @@
       <c r="Y322" s="11"/>
       <c r="Z322" s="11"/>
     </row>
-    <row r="323" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="3">
         <v>69</v>
       </c>
@@ -23284,7 +23283,7 @@
       <c r="Y323" s="11"/>
       <c r="Z323" s="11"/>
     </row>
-    <row r="324" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="3">
         <v>70</v>
       </c>
@@ -23344,7 +23343,7 @@
       <c r="Y324" s="11"/>
       <c r="Z324" s="11"/>
     </row>
-    <row r="325" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="3">
         <v>70</v>
       </c>
@@ -23404,7 +23403,7 @@
       <c r="Y325" s="11"/>
       <c r="Z325" s="11"/>
     </row>
-    <row r="326" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="3">
         <v>70</v>
       </c>
@@ -23462,7 +23461,7 @@
       <c r="Y326" s="11"/>
       <c r="Z326" s="11"/>
     </row>
-    <row r="327" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="3">
         <v>70</v>
       </c>
@@ -23522,7 +23521,7 @@
       <c r="Y327" s="11"/>
       <c r="Z327" s="11"/>
     </row>
-    <row r="328" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="3">
         <v>70</v>
       </c>
@@ -23582,7 +23581,7 @@
       <c r="Y328" s="11"/>
       <c r="Z328" s="11"/>
     </row>
-    <row r="329" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="3">
         <v>70</v>
       </c>
@@ -23640,7 +23639,7 @@
       <c r="Y329" s="11"/>
       <c r="Z329" s="11"/>
     </row>
-    <row r="330" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="3">
         <v>70</v>
       </c>
@@ -23698,7 +23697,7 @@
       <c r="Y330" s="11"/>
       <c r="Z330" s="11"/>
     </row>
-    <row r="331" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="3">
         <v>70</v>
       </c>
@@ -23756,7 +23755,7 @@
       <c r="Y331" s="11"/>
       <c r="Z331" s="11"/>
     </row>
-    <row r="332" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="3">
         <v>70</v>
       </c>
@@ -23814,7 +23813,7 @@
       <c r="Y332" s="11"/>
       <c r="Z332" s="11"/>
     </row>
-    <row r="333" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="3">
         <v>71</v>
       </c>
@@ -23872,7 +23871,7 @@
       <c r="Y333" s="11"/>
       <c r="Z333" s="11"/>
     </row>
-    <row r="334" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="3">
         <v>72</v>
       </c>
@@ -23932,7 +23931,7 @@
       <c r="Y334" s="11"/>
       <c r="Z334" s="11"/>
     </row>
-    <row r="335" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="3">
         <v>73</v>
       </c>
@@ -23992,7 +23991,7 @@
       <c r="Y335" s="11"/>
       <c r="Z335" s="11"/>
     </row>
-    <row r="336" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="3">
         <v>73</v>
       </c>
@@ -24052,7 +24051,7 @@
       <c r="Y336" s="11"/>
       <c r="Z336" s="11"/>
     </row>
-    <row r="337" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="3">
         <v>73</v>
       </c>
@@ -24112,7 +24111,7 @@
       <c r="Y337" s="11"/>
       <c r="Z337" s="11"/>
     </row>
-    <row r="338" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="3">
         <v>73</v>
       </c>
@@ -24172,7 +24171,7 @@
       <c r="Y338" s="11"/>
       <c r="Z338" s="11"/>
     </row>
-    <row r="339" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="3">
         <v>73</v>
       </c>
@@ -24232,7 +24231,7 @@
       <c r="Y339" s="11"/>
       <c r="Z339" s="11"/>
     </row>
-    <row r="340" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="3">
         <v>74</v>
       </c>
@@ -24292,7 +24291,7 @@
       <c r="Y340" s="11"/>
       <c r="Z340" s="11"/>
     </row>
-    <row r="341" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="3">
         <v>74</v>
       </c>
@@ -24352,7 +24351,7 @@
       <c r="Y341" s="11"/>
       <c r="Z341" s="11"/>
     </row>
-    <row r="342" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="3">
         <v>74</v>
       </c>
@@ -24412,7 +24411,7 @@
       <c r="Y342" s="11"/>
       <c r="Z342" s="11"/>
     </row>
-    <row r="343" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="3">
         <v>74</v>
       </c>
@@ -24472,7 +24471,7 @@
       <c r="Y343" s="11"/>
       <c r="Z343" s="11"/>
     </row>
-    <row r="344" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="3">
         <v>75</v>
       </c>
@@ -24532,7 +24531,7 @@
       <c r="Y344" s="11"/>
       <c r="Z344" s="11"/>
     </row>
-    <row r="345" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="3">
         <v>75</v>
       </c>
@@ -24592,7 +24591,7 @@
       <c r="Y345" s="11"/>
       <c r="Z345" s="11"/>
     </row>
-    <row r="346" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="3">
         <v>75</v>
       </c>
@@ -24652,7 +24651,7 @@
       <c r="Y346" s="11"/>
       <c r="Z346" s="11"/>
     </row>
-    <row r="347" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="3">
         <v>75</v>
       </c>
@@ -24712,7 +24711,7 @@
       <c r="Y347" s="11"/>
       <c r="Z347" s="11"/>
     </row>
-    <row r="348" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="3">
         <v>75</v>
       </c>
@@ -24772,7 +24771,7 @@
       <c r="Y348" s="11"/>
       <c r="Z348" s="11"/>
     </row>
-    <row r="349" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="3">
         <v>75</v>
       </c>
@@ -24832,7 +24831,7 @@
       <c r="Y349" s="11"/>
       <c r="Z349" s="11"/>
     </row>
-    <row r="350" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="3">
         <v>76</v>
       </c>
@@ -24888,7 +24887,7 @@
       <c r="Y350" s="11"/>
       <c r="Z350" s="11"/>
     </row>
-    <row r="351" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="3">
         <v>77</v>
       </c>
@@ -24948,7 +24947,7 @@
       <c r="Y351" s="11"/>
       <c r="Z351" s="11"/>
     </row>
-    <row r="352" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="3">
         <v>78</v>
       </c>
@@ -25008,7 +25007,7 @@
       <c r="Y352" s="11"/>
       <c r="Z352" s="11"/>
     </row>
-    <row r="353" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="3">
         <v>79</v>
       </c>
@@ -25068,7 +25067,7 @@
       <c r="Y353" s="11"/>
       <c r="Z353" s="11"/>
     </row>
-    <row r="354" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="3">
         <v>79</v>
       </c>
@@ -25128,7 +25127,7 @@
       <c r="Y354" s="11"/>
       <c r="Z354" s="11"/>
     </row>
-    <row r="355" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="3">
         <v>79</v>
       </c>
@@ -25188,7 +25187,7 @@
       <c r="Y355" s="11"/>
       <c r="Z355" s="11"/>
     </row>
-    <row r="356" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="3">
         <v>80</v>
       </c>
@@ -25248,7 +25247,7 @@
       <c r="Y356" s="11"/>
       <c r="Z356" s="11"/>
     </row>
-    <row r="357" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357" s="3">
         <v>80</v>
       </c>
@@ -25308,7 +25307,7 @@
       <c r="Y357" s="11"/>
       <c r="Z357" s="11"/>
     </row>
-    <row r="358" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358" s="3">
         <v>80</v>
       </c>
@@ -25368,7 +25367,7 @@
       <c r="Y358" s="11"/>
       <c r="Z358" s="11"/>
     </row>
-    <row r="359" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359" s="3">
         <v>80</v>
       </c>
@@ -25428,7 +25427,7 @@
       <c r="Y359" s="11"/>
       <c r="Z359" s="11"/>
     </row>
-    <row r="360" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="3">
         <v>80</v>
       </c>
@@ -25488,7 +25487,7 @@
       <c r="Y360" s="11"/>
       <c r="Z360" s="11"/>
     </row>
-    <row r="361" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="3">
         <v>80</v>
       </c>
@@ -25548,7 +25547,7 @@
       <c r="Y361" s="11"/>
       <c r="Z361" s="11"/>
     </row>
-    <row r="362" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362" s="3">
         <v>80</v>
       </c>
@@ -25608,7 +25607,7 @@
       <c r="Y362" s="11"/>
       <c r="Z362" s="11"/>
     </row>
-    <row r="363" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363" s="3">
         <v>81</v>
       </c>
@@ -25670,7 +25669,7 @@
       <c r="Y363" s="11"/>
       <c r="Z363" s="11"/>
     </row>
-    <row r="364" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364" s="3">
         <v>81</v>
       </c>
@@ -25732,7 +25731,7 @@
       <c r="Y364" s="11"/>
       <c r="Z364" s="11"/>
     </row>
-    <row r="365" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365" s="3">
         <v>81</v>
       </c>
@@ -25794,7 +25793,7 @@
       <c r="Y365" s="11"/>
       <c r="Z365" s="11"/>
     </row>
-    <row r="366" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366" s="3">
         <v>81</v>
       </c>
@@ -25856,7 +25855,7 @@
       <c r="Y366" s="11"/>
       <c r="Z366" s="11"/>
     </row>
-    <row r="367" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367" s="3">
         <v>81</v>
       </c>
@@ -25918,7 +25917,7 @@
       <c r="Y367" s="11"/>
       <c r="Z367" s="11"/>
     </row>
-    <row r="368" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368" s="3">
         <v>81</v>
       </c>
@@ -25980,7 +25979,7 @@
       <c r="Y368" s="11"/>
       <c r="Z368" s="11"/>
     </row>
-    <row r="369" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369" s="3">
         <v>81</v>
       </c>
@@ -26042,7 +26041,7 @@
       <c r="Y369" s="11"/>
       <c r="Z369" s="11"/>
     </row>
-    <row r="370" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370" s="3">
         <v>81</v>
       </c>
@@ -26102,7 +26101,7 @@
       <c r="Y370" s="11"/>
       <c r="Z370" s="11"/>
     </row>
-    <row r="371" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371" s="3">
         <v>82</v>
       </c>
@@ -26162,7 +26161,7 @@
       <c r="Y371" s="11"/>
       <c r="Z371" s="11"/>
     </row>
-    <row r="372" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372" s="3">
         <v>82</v>
       </c>
@@ -26222,7 +26221,7 @@
       <c r="Y372" s="11"/>
       <c r="Z372" s="11"/>
     </row>
-    <row r="373" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373" s="3">
         <v>83</v>
       </c>
@@ -26280,7 +26279,7 @@
       <c r="Y373" s="11"/>
       <c r="Z373" s="11"/>
     </row>
-    <row r="374" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374" s="3">
         <v>84</v>
       </c>
@@ -26340,7 +26339,7 @@
       <c r="Y374" s="11"/>
       <c r="Z374" s="11"/>
     </row>
-    <row r="375" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375" s="3">
         <v>84</v>
       </c>
@@ -26402,7 +26401,7 @@
       <c r="Y375" s="11"/>
       <c r="Z375" s="11"/>
     </row>
-    <row r="376" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="3">
         <v>84</v>
       </c>
@@ -26464,7 +26463,7 @@
       <c r="Y376" s="11"/>
       <c r="Z376" s="11"/>
     </row>
-    <row r="377" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="3">
         <v>84</v>
       </c>
@@ -26526,7 +26525,7 @@
       <c r="Y377" s="11"/>
       <c r="Z377" s="11"/>
     </row>
-    <row r="378" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378" s="3">
         <v>84</v>
       </c>
@@ -26588,7 +26587,7 @@
       <c r="Y378" s="11"/>
       <c r="Z378" s="11"/>
     </row>
-    <row r="379" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379" s="3">
         <v>84</v>
       </c>
@@ -26650,7 +26649,7 @@
       <c r="Y379" s="11"/>
       <c r="Z379" s="11"/>
     </row>
-    <row r="380" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380" s="3">
         <v>84</v>
       </c>
@@ -26712,7 +26711,7 @@
       <c r="Y380" s="11"/>
       <c r="Z380" s="11"/>
     </row>
-    <row r="381" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381" s="3">
         <v>84</v>
       </c>
@@ -26774,7 +26773,7 @@
       <c r="Y381" s="11"/>
       <c r="Z381" s="11"/>
     </row>
-    <row r="382" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382" s="3">
         <v>84</v>
       </c>
@@ -26836,7 +26835,7 @@
       <c r="Y382" s="11"/>
       <c r="Z382" s="11"/>
     </row>
-    <row r="383" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="3">
         <v>84</v>
       </c>
@@ -26898,7 +26897,7 @@
       <c r="Y383" s="11"/>
       <c r="Z383" s="11"/>
     </row>
-    <row r="384" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="3">
         <v>84</v>
       </c>
@@ -26960,7 +26959,7 @@
       <c r="Y384" s="11"/>
       <c r="Z384" s="11"/>
     </row>
-    <row r="385" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385" s="3">
         <v>84</v>
       </c>
@@ -27022,7 +27021,7 @@
       <c r="Y385" s="11"/>
       <c r="Z385" s="11"/>
     </row>
-    <row r="386" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386" s="3">
         <v>84</v>
       </c>
@@ -27084,7 +27083,7 @@
       <c r="Y386" s="11"/>
       <c r="Z386" s="11"/>
     </row>
-    <row r="387" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="3">
         <v>84</v>
       </c>
@@ -27146,7 +27145,7 @@
       <c r="Y387" s="11"/>
       <c r="Z387" s="11"/>
     </row>
-    <row r="388" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="3">
         <v>84</v>
       </c>
@@ -27208,7 +27207,7 @@
       <c r="Y388" s="11"/>
       <c r="Z388" s="11"/>
     </row>
-    <row r="389" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="3">
         <v>84</v>
       </c>
@@ -27270,7 +27269,7 @@
       <c r="Y389" s="11"/>
       <c r="Z389" s="11"/>
     </row>
-    <row r="390" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="3">
         <v>84</v>
       </c>
@@ -27332,7 +27331,7 @@
       <c r="Y390" s="11"/>
       <c r="Z390" s="11"/>
     </row>
-    <row r="391" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="3">
         <v>84</v>
       </c>
@@ -27394,7 +27393,7 @@
       <c r="Y391" s="11"/>
       <c r="Z391" s="11"/>
     </row>
-    <row r="392" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="3">
         <v>84</v>
       </c>
@@ -27456,7 +27455,7 @@
       <c r="Y392" s="11"/>
       <c r="Z392" s="11"/>
     </row>
-    <row r="393" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="3">
         <v>84</v>
       </c>
@@ -27518,7 +27517,7 @@
       <c r="Y393" s="11"/>
       <c r="Z393" s="11"/>
     </row>
-    <row r="394" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="3">
         <v>84</v>
       </c>
@@ -27578,7 +27577,7 @@
       <c r="Y394" s="11"/>
       <c r="Z394" s="11"/>
     </row>
-    <row r="395" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="3">
         <v>84</v>
       </c>
@@ -27638,7 +27637,7 @@
       <c r="Y395" s="11"/>
       <c r="Z395" s="11"/>
     </row>
-    <row r="396" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="3">
         <v>84</v>
       </c>
@@ -27698,7 +27697,7 @@
       <c r="Y396" s="11"/>
       <c r="Z396" s="11"/>
     </row>
-    <row r="397" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="3">
         <v>84</v>
       </c>
@@ -27760,7 +27759,7 @@
       <c r="Y397" s="11"/>
       <c r="Z397" s="11"/>
     </row>
-    <row r="398" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="3">
         <v>84</v>
       </c>
@@ -27822,7 +27821,7 @@
       <c r="Y398" s="11"/>
       <c r="Z398" s="11"/>
     </row>
-    <row r="399" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="3">
         <v>84</v>
       </c>
@@ -27884,7 +27883,7 @@
       <c r="Y399" s="11"/>
       <c r="Z399" s="11"/>
     </row>
-    <row r="400" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="3">
         <v>84</v>
       </c>
@@ -27944,7 +27943,7 @@
       <c r="Y400" s="11"/>
       <c r="Z400" s="11"/>
     </row>
-    <row r="401" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="3">
         <v>85</v>
       </c>
@@ -28004,7 +28003,7 @@
       <c r="Y401" s="11"/>
       <c r="Z401" s="11"/>
     </row>
-    <row r="402" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="3">
         <v>85</v>
       </c>
@@ -28064,7 +28063,7 @@
       <c r="Y402" s="11"/>
       <c r="Z402" s="11"/>
     </row>
-    <row r="403" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="3">
         <v>85</v>
       </c>
@@ -28304,7 +28303,7 @@
       <c r="Y406" s="11"/>
       <c r="Z406" s="11"/>
     </row>
-    <row r="407" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="3">
         <v>87</v>
       </c>
@@ -28362,7 +28361,7 @@
       <c r="Y407" s="11"/>
       <c r="Z407" s="11"/>
     </row>
-    <row r="408" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="3">
         <v>87</v>
       </c>
@@ -28420,7 +28419,7 @@
       <c r="Y408" s="11"/>
       <c r="Z408" s="11"/>
     </row>
-    <row r="409" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="3">
         <v>87</v>
       </c>
@@ -28478,7 +28477,7 @@
       <c r="Y409" s="11"/>
       <c r="Z409" s="11"/>
     </row>
-    <row r="410" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="3">
         <v>87</v>
       </c>
@@ -28536,7 +28535,7 @@
       <c r="Y410" s="11"/>
       <c r="Z410" s="11"/>
     </row>
-    <row r="411" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="3">
         <v>87</v>
       </c>
@@ -28594,7 +28593,7 @@
       <c r="Y411" s="11"/>
       <c r="Z411" s="11"/>
     </row>
-    <row r="412" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="3">
         <v>87</v>
       </c>
@@ -28652,7 +28651,7 @@
       <c r="Y412" s="11"/>
       <c r="Z412" s="11"/>
     </row>
-    <row r="413" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="3">
         <v>87</v>
       </c>
@@ -28710,7 +28709,7 @@
       <c r="Y413" s="11"/>
       <c r="Z413" s="11"/>
     </row>
-    <row r="414" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="3">
         <v>87</v>
       </c>
@@ -28768,7 +28767,7 @@
       <c r="Y414" s="11"/>
       <c r="Z414" s="11"/>
     </row>
-    <row r="415" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="3">
         <v>87</v>
       </c>
@@ -28826,7 +28825,7 @@
       <c r="Y415" s="11"/>
       <c r="Z415" s="11"/>
     </row>
-    <row r="416" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="3">
         <v>87</v>
       </c>
@@ -28884,7 +28883,7 @@
       <c r="Y416" s="11"/>
       <c r="Z416" s="11"/>
     </row>
-    <row r="417" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="3">
         <v>88</v>
       </c>
@@ -28942,7 +28941,7 @@
       <c r="Y417" s="11"/>
       <c r="Z417" s="11"/>
     </row>
-    <row r="418" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="3">
         <v>89</v>
       </c>
@@ -29002,7 +29001,7 @@
       <c r="Y418" s="11"/>
       <c r="Z418" s="11"/>
     </row>
-    <row r="419" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="3">
         <v>89</v>
       </c>
@@ -29062,7 +29061,7 @@
       <c r="Y419" s="11"/>
       <c r="Z419" s="11"/>
     </row>
-    <row r="420" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="3">
         <v>90</v>
       </c>
@@ -29102,7 +29101,7 @@
       <c r="Y420" s="11"/>
       <c r="Z420" s="11"/>
     </row>
-    <row r="421" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="3">
         <v>91</v>
       </c>
@@ -29162,7 +29161,7 @@
       <c r="Y421" s="11"/>
       <c r="Z421" s="11"/>
     </row>
-    <row r="422" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="3">
         <v>91</v>
       </c>
@@ -29222,7 +29221,7 @@
       <c r="Y422" s="11"/>
       <c r="Z422" s="11"/>
     </row>
-    <row r="423" spans="1:26" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:26" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="3">
         <v>92</v>
       </c>
@@ -45437,13 +45436,7 @@
       <c r="Z1000" s="11"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S423">
-    <filterColumn colId="1">
-      <filters>
-        <filter val="0228-2023-OEFA/DFAI-SSAG"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S423"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -45453,7 +45446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
@@ -61125,7 +61118,7 @@
       <c r="A819" s="25">
         <v>86</v>
       </c>
-      <c r="B819" s="60" t="s">
+      <c r="B819" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C819" s="26">
@@ -61145,7 +61138,7 @@
       <c r="A820" s="25">
         <v>86</v>
       </c>
-      <c r="B820" s="60" t="s">
+      <c r="B820" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C820" s="26">
@@ -61165,7 +61158,7 @@
       <c r="A821" s="25">
         <v>86</v>
       </c>
-      <c r="B821" s="60" t="s">
+      <c r="B821" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C821" s="26">
@@ -61185,7 +61178,7 @@
       <c r="A822" s="25">
         <v>86</v>
       </c>
-      <c r="B822" s="60" t="s">
+      <c r="B822" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C822" s="26">
@@ -61205,7 +61198,7 @@
       <c r="A823" s="25">
         <v>86</v>
       </c>
-      <c r="B823" s="60" t="s">
+      <c r="B823" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C823" s="26">
@@ -61225,7 +61218,7 @@
       <c r="A824" s="25">
         <v>86</v>
       </c>
-      <c r="B824" s="60" t="s">
+      <c r="B824" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C824" s="26">
@@ -61245,7 +61238,7 @@
       <c r="A825" s="25">
         <v>86</v>
       </c>
-      <c r="B825" s="60" t="s">
+      <c r="B825" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C825" s="26">
@@ -61265,7 +61258,7 @@
       <c r="A826" s="25">
         <v>86</v>
       </c>
-      <c r="B826" s="60" t="s">
+      <c r="B826" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C826" s="26">
@@ -61285,7 +61278,7 @@
       <c r="A827" s="25">
         <v>86</v>
       </c>
-      <c r="B827" s="60" t="s">
+      <c r="B827" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C827" s="26">
@@ -61305,7 +61298,7 @@
       <c r="A828" s="25">
         <v>86</v>
       </c>
-      <c r="B828" s="60" t="s">
+      <c r="B828" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C828" s="26">
@@ -61325,7 +61318,7 @@
       <c r="A829" s="25">
         <v>86</v>
       </c>
-      <c r="B829" s="60" t="s">
+      <c r="B829" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C829" s="26">
@@ -61345,7 +61338,7 @@
       <c r="A830" s="25">
         <v>86</v>
       </c>
-      <c r="B830" s="60" t="s">
+      <c r="B830" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C830" s="26">
@@ -61365,7 +61358,7 @@
       <c r="A831" s="25">
         <v>86</v>
       </c>
-      <c r="B831" s="60" t="s">
+      <c r="B831" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C831" s="26">
@@ -61385,7 +61378,7 @@
       <c r="A832" s="25">
         <v>86</v>
       </c>
-      <c r="B832" s="60" t="s">
+      <c r="B832" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C832" s="26">
@@ -61405,7 +61398,7 @@
       <c r="A833" s="25">
         <v>86</v>
       </c>
-      <c r="B833" s="60" t="s">
+      <c r="B833" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C833" s="26">
@@ -61425,7 +61418,7 @@
       <c r="A834" s="25">
         <v>86</v>
       </c>
-      <c r="B834" s="60" t="s">
+      <c r="B834" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C834" s="26">
@@ -61445,7 +61438,7 @@
       <c r="A835" s="25">
         <v>86</v>
       </c>
-      <c r="B835" s="60" t="s">
+      <c r="B835" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C835" s="26">
@@ -61465,7 +61458,7 @@
       <c r="A836" s="25">
         <v>86</v>
       </c>
-      <c r="B836" s="60" t="s">
+      <c r="B836" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C836" s="26">
@@ -61485,7 +61478,7 @@
       <c r="A837" s="25">
         <v>86</v>
       </c>
-      <c r="B837" s="60" t="s">
+      <c r="B837" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C837" s="26">
@@ -61505,7 +61498,7 @@
       <c r="A838" s="25">
         <v>86</v>
       </c>
-      <c r="B838" s="60" t="s">
+      <c r="B838" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C838" s="26">
@@ -61525,7 +61518,7 @@
       <c r="A839" s="25">
         <v>86</v>
       </c>
-      <c r="B839" s="60" t="s">
+      <c r="B839" s="57" t="s">
         <v>581</v>
       </c>
       <c r="C839" s="26">
@@ -64016,24 +64009,24 @@
   <sheetData>
     <row r="2" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B2" s="38"/>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="58" t="s">
         <v>645</v>
       </c>
-      <c r="D2" s="57"/>
+      <c r="D2" s="59"/>
     </row>
     <row r="3" spans="2:4" ht="14.4" x14ac:dyDescent="0.3">
       <c r="B3" s="39"/>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="58" t="s">
         <v>646</v>
       </c>
-      <c r="D3" s="57"/>
+      <c r="D3" s="59"/>
     </row>
     <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B4" s="55"/>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="58" t="s">
         <v>649</v>
       </c>
-      <c r="D4" s="58"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.3"/>

--- a/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
+++ b/Paolo/Scripts/Factores/Copia de Informes_2023.xlsx
@@ -4073,9 +4073,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="P17" sqref="P17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -45444,10 +45444,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F1316"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -45482,7 +45483,7 @@
         <v>647</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
         <v>1</v>
       </c>
@@ -45498,7 +45499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="25">
         <v>1</v>
       </c>
@@ -45514,7 +45515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="25">
         <v>2</v>
       </c>
@@ -45534,7 +45535,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="25">
         <v>2</v>
       </c>
@@ -45554,7 +45555,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="25">
         <v>2</v>
       </c>
@@ -45574,7 +45575,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="25">
         <v>2</v>
       </c>
@@ -45594,7 +45595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="25">
         <v>2</v>
       </c>
@@ -45614,7 +45615,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="25">
         <v>2</v>
       </c>
@@ -45634,7 +45635,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="25">
         <v>2</v>
       </c>
@@ -45654,7 +45655,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -45674,7 +45675,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -45694,7 +45695,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="25">
         <v>2</v>
       </c>
@@ -45714,7 +45715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="25">
         <v>2</v>
       </c>
@@ -45734,7 +45735,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="25">
         <v>2</v>
       </c>
@@ -45754,7 +45755,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="25">
         <v>2</v>
       </c>
@@ -45770,7 +45771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="25">
         <v>2</v>
       </c>
@@ -45786,7 +45787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25">
         <v>2</v>
       </c>
@@ -45802,7 +45803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="25">
         <v>2</v>
       </c>
@@ -45818,7 +45819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="25">
         <v>2</v>
       </c>
@@ -45838,7 +45839,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="25">
         <v>2</v>
       </c>
@@ -45858,7 +45859,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" s="25">
         <v>2</v>
       </c>
@@ -45878,7 +45879,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="25">
         <v>2</v>
       </c>
@@ -45898,7 +45899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="25">
         <v>2</v>
       </c>
@@ -45918,7 +45919,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="25">
         <v>2</v>
       </c>
@@ -45938,7 +45939,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="25">
         <v>3</v>
       </c>
@@ -45954,7 +45955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="25">
         <v>3</v>
       </c>
@@ -45970,7 +45971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="25">
         <v>3</v>
       </c>
@@ -45990,7 +45991,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="25">
         <v>3</v>
       </c>
@@ -46010,7 +46011,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="25">
         <v>3</v>
       </c>
@@ -46030,7 +46031,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="25">
         <v>3</v>
       </c>
@@ -46050,7 +46051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="25">
         <v>3</v>
       </c>
@@ -46070,7 +46071,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" ht="14.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A33" s="25">
         <v>3</v>
       </c>
@@ -46090,7 +46091,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="34" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="25">
         <v>3</v>
       </c>
@@ -46110,7 +46111,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="25">
         <v>3</v>
       </c>
@@ -46130,7 +46131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="25">
         <v>3</v>
       </c>
@@ -46146,7 +46147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37" s="25">
         <v>3</v>
       </c>
@@ -46162,7 +46163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="25">
         <v>4</v>
       </c>
@@ -46182,7 +46183,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39" s="25">
         <v>4</v>
       </c>
@@ -46202,7 +46203,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="25">
         <v>4</v>
       </c>
@@ -46222,7 +46223,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="25">
         <v>4</v>
       </c>
@@ -46242,7 +46243,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="25">
         <v>4</v>
       </c>
@@ -46262,7 +46263,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="25">
         <v>4</v>
       </c>
@@ -46282,7 +46283,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="44" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="25">
         <v>4</v>
       </c>
@@ -46302,7 +46303,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="25">
         <v>4</v>
       </c>
@@ -46322,7 +46323,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="25">
         <v>4</v>
       </c>
@@ -46342,7 +46343,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="25">
         <v>4</v>
       </c>
@@ -46362,7 +46363,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="25">
         <v>4</v>
       </c>
@@ -46382,7 +46383,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="25">
         <v>4</v>
       </c>
@@ -46402,7 +46403,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="25">
         <v>4</v>
       </c>
@@ -46422,7 +46423,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51" s="25">
         <v>4</v>
       </c>
@@ -46442,7 +46443,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="52" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="25">
         <v>4</v>
       </c>
@@ -46462,7 +46463,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="25">
         <v>4</v>
       </c>
@@ -46482,7 +46483,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="25">
         <v>4</v>
       </c>
@@ -46502,7 +46503,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="25">
         <v>4</v>
       </c>
@@ -46522,7 +46523,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="25">
         <v>4</v>
       </c>
@@ -46542,7 +46543,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="25">
         <v>4</v>
       </c>
@@ -46562,7 +46563,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="25">
         <v>4</v>
       </c>
@@ -46582,7 +46583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="25">
         <v>4</v>
       </c>
@@ -46602,7 +46603,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="25">
         <v>4</v>
       </c>
@@ -46622,7 +46623,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="25">
         <v>4</v>
       </c>
@@ -46642,7 +46643,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="25">
         <v>4</v>
       </c>
@@ -46662,7 +46663,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="25">
         <v>4</v>
       </c>
@@ -46682,7 +46683,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="25">
         <v>4</v>
       </c>
@@ -46702,7 +46703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="25">
         <v>4</v>
       </c>
@@ -46722,7 +46723,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="25">
         <v>4</v>
       </c>
@@ -46742,7 +46743,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="25">
         <v>4</v>
       </c>
@@ -46762,7 +46763,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="25">
         <v>4</v>
       </c>
@@ -46782,7 +46783,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="25">
         <v>4</v>
       </c>
@@ -46802,7 +46803,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="25">
         <v>4</v>
       </c>
@@ -46822,7 +46823,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="71" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="25">
         <v>4</v>
       </c>
@@ -46842,7 +46843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="72" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="25">
         <v>4</v>
       </c>
@@ -46862,7 +46863,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="73" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="25">
         <v>4</v>
       </c>
@@ -46882,7 +46883,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="74" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="25">
         <v>4</v>
       </c>
@@ -46902,7 +46903,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25">
         <v>4</v>
       </c>
@@ -46922,7 +46923,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="25">
         <v>4</v>
       </c>
@@ -46942,7 +46943,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="77" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="25">
         <v>4</v>
       </c>
@@ -46962,7 +46963,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="25">
         <v>4</v>
       </c>
@@ -46982,7 +46983,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="25">
         <v>4</v>
       </c>
@@ -47002,7 +47003,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="25">
         <v>4</v>
       </c>
@@ -47022,7 +47023,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="25">
         <v>4</v>
       </c>
@@ -47042,7 +47043,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="25">
         <v>4</v>
       </c>
@@ -47062,7 +47063,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83" s="25">
         <v>4</v>
       </c>
@@ -47082,7 +47083,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="25">
         <v>4</v>
       </c>
@@ -47102,7 +47103,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="25">
         <v>4</v>
       </c>
@@ -47122,7 +47123,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="25">
         <v>4</v>
       </c>
@@ -47142,7 +47143,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="25">
         <v>4</v>
       </c>
@@ -47162,7 +47163,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="25">
         <v>4</v>
       </c>
@@ -47182,7 +47183,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="25">
         <v>4</v>
       </c>
@@ -47202,7 +47203,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="25">
         <v>4</v>
       </c>
@@ -47222,7 +47223,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="25">
         <v>4</v>
       </c>
@@ -47242,7 +47243,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="25">
         <v>4</v>
       </c>
@@ -47262,7 +47263,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="25">
         <v>4</v>
       </c>
@@ -47282,7 +47283,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="25">
         <v>4</v>
       </c>
@@ -47302,7 +47303,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="25">
         <v>4</v>
       </c>
@@ -47322,7 +47323,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="25">
         <v>4</v>
       </c>
@@ -47342,7 +47343,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="25">
         <v>4</v>
       </c>
@@ -47362,7 +47363,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="25">
         <v>4</v>
       </c>
@@ -47382,7 +47383,7 @@
         <v>0.48</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="25">
         <v>4</v>
       </c>
@@ -47402,7 +47403,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="25">
         <v>4</v>
       </c>
@@ -47422,7 +47423,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="25">
         <v>4</v>
       </c>
@@ -47442,7 +47443,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="25">
         <v>4</v>
       </c>
@@ -47462,7 +47463,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="25">
         <v>4</v>
       </c>
@@ -47482,7 +47483,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="25">
         <v>4</v>
       </c>
@@ -47502,7 +47503,7 @@
         <v>0.54</v>
       </c>
     </row>
-    <row r="105" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="25">
         <v>4</v>
       </c>
@@ -47522,7 +47523,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="25">
         <v>4</v>
       </c>
@@ -47542,7 +47543,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="107" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="25">
         <v>4</v>
       </c>
@@ -47562,7 +47563,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="108" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="25">
         <v>4</v>
       </c>
@@ -47582,7 +47583,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="109" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="25">
         <v>4</v>
       </c>
@@ -47602,7 +47603,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="25">
         <v>4</v>
       </c>
@@ -47622,7 +47623,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="111" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="25">
         <v>5</v>
       </c>
@@ -47638,7 +47639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="25">
         <v>6</v>
       </c>
@@ -47652,7 +47653,7 @@
       </c>
       <c r="F112" s="28"/>
     </row>
-    <row r="113" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="25">
         <v>7</v>
       </c>
@@ -47668,7 +47669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="25">
         <v>7</v>
       </c>
@@ -47688,7 +47689,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="115" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115" s="25">
         <v>7</v>
       </c>
@@ -47708,7 +47709,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="116" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="25">
         <v>7</v>
       </c>
@@ -47728,7 +47729,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="117" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="25">
         <v>7</v>
       </c>
@@ -47748,7 +47749,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="25">
         <v>7</v>
       </c>
@@ -47768,7 +47769,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="25">
         <v>7</v>
       </c>
@@ -47788,7 +47789,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="25">
         <v>8</v>
       </c>
@@ -47804,7 +47805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="25">
         <v>8</v>
       </c>
@@ -47820,7 +47821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="25">
         <v>8</v>
       </c>
@@ -47840,7 +47841,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="123" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123" s="25">
         <v>8</v>
       </c>
@@ -47860,7 +47861,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="25">
         <v>8</v>
       </c>
@@ -47880,7 +47881,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="25">
         <v>8</v>
       </c>
@@ -47900,7 +47901,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="25">
         <v>8</v>
       </c>
@@ -47920,7 +47921,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="25">
         <v>8</v>
       </c>
@@ -47940,7 +47941,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="128" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="25">
         <v>8</v>
       </c>
@@ -47960,7 +47961,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="129" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="25">
         <v>8</v>
       </c>
@@ -47980,7 +47981,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="25">
         <v>8</v>
       </c>
@@ -48000,7 +48001,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131" s="25">
         <v>8</v>
       </c>
@@ -48020,7 +48021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="132" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="25">
         <v>8</v>
       </c>
@@ -48040,7 +48041,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="25">
         <v>8</v>
       </c>
@@ -48060,7 +48061,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="25">
         <v>8</v>
       </c>
@@ -48080,7 +48081,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="25">
         <v>8</v>
       </c>
@@ -48100,7 +48101,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="136" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136" s="25">
         <v>8</v>
       </c>
@@ -48120,7 +48121,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="137" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137" s="25">
         <v>8</v>
       </c>
@@ -48140,7 +48141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="138" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138" s="25">
         <v>8</v>
       </c>
@@ -48160,7 +48161,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139" s="25">
         <v>8</v>
       </c>
@@ -48180,7 +48181,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140" s="25">
         <v>8</v>
       </c>
@@ -48196,7 +48197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141" s="25">
         <v>8</v>
       </c>
@@ -48216,7 +48217,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142" s="25">
         <v>8</v>
       </c>
@@ -48236,7 +48237,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="143" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143" s="25">
         <v>8</v>
       </c>
@@ -48256,7 +48257,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="144" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144" s="25">
         <v>8</v>
       </c>
@@ -48276,7 +48277,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="145" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145" s="25">
         <v>8</v>
       </c>
@@ -48296,7 +48297,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="146" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146" s="25">
         <v>8</v>
       </c>
@@ -48316,7 +48317,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="147" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147" s="25">
         <v>8</v>
       </c>
@@ -48332,7 +48333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148" s="25">
         <v>9</v>
       </c>
@@ -48352,7 +48353,7 @@
         <v>1.37</v>
       </c>
     </row>
-    <row r="149" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149" s="25">
         <v>9</v>
       </c>
@@ -48372,7 +48373,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="150" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="25">
         <v>9</v>
       </c>
@@ -48392,7 +48393,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="25">
         <v>9</v>
       </c>
@@ -48412,7 +48413,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="25">
         <v>9</v>
       </c>
@@ -48432,7 +48433,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="25">
         <v>9</v>
       </c>
@@ -48452,7 +48453,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="154" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154" s="25">
         <v>9</v>
       </c>
@@ -48472,7 +48473,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155" s="25">
         <v>9</v>
       </c>
@@ -48492,7 +48493,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="156" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156" s="25">
         <v>10</v>
       </c>
@@ -48506,7 +48507,7 @@
       </c>
       <c r="F156" s="28"/>
     </row>
-    <row r="157" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="25">
         <v>11</v>
       </c>
@@ -48522,7 +48523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="25">
         <v>12</v>
       </c>
@@ -48542,7 +48543,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="159" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="25">
         <v>12</v>
       </c>
@@ -48562,7 +48563,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="160" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="25">
         <v>12</v>
       </c>
@@ -48582,7 +48583,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="161" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161" s="25">
         <v>12</v>
       </c>
@@ -48602,7 +48603,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="162" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162" s="25">
         <v>12</v>
       </c>
@@ -48622,7 +48623,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="163" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163" s="25">
         <v>12</v>
       </c>
@@ -48642,7 +48643,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="164" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164" s="25">
         <v>12</v>
       </c>
@@ -48662,7 +48663,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="165" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165" s="25">
         <v>12</v>
       </c>
@@ -48682,7 +48683,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="166" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166" s="25">
         <v>12</v>
       </c>
@@ -48702,7 +48703,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="167" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167" s="25">
         <v>12</v>
       </c>
@@ -48722,7 +48723,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="168" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168" s="25">
         <v>12</v>
       </c>
@@ -48742,7 +48743,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="169" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169" s="25">
         <v>12</v>
       </c>
@@ -48762,7 +48763,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="170" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170" s="25">
         <v>12</v>
       </c>
@@ -48782,7 +48783,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="171" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171" s="25">
         <v>12</v>
       </c>
@@ -48802,7 +48803,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="172" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172" s="25">
         <v>12</v>
       </c>
@@ -48822,7 +48823,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173" s="25">
         <v>12</v>
       </c>
@@ -48842,7 +48843,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="174" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174" s="25">
         <v>12</v>
       </c>
@@ -48858,7 +48859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="25">
         <v>12</v>
       </c>
@@ -48878,7 +48879,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="25">
         <v>12</v>
       </c>
@@ -48898,7 +48899,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="177" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177" s="25">
         <v>12</v>
       </c>
@@ -48918,7 +48919,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178" s="25">
         <v>12</v>
       </c>
@@ -48938,7 +48939,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="25">
         <v>12</v>
       </c>
@@ -48958,7 +48959,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="25">
         <v>12</v>
       </c>
@@ -48978,7 +48979,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181" s="25">
         <v>12</v>
       </c>
@@ -48998,7 +48999,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182" s="25">
         <v>12</v>
       </c>
@@ -49018,7 +49019,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183" s="25">
         <v>12</v>
       </c>
@@ -49038,7 +49039,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184" s="25">
         <v>12</v>
       </c>
@@ -49058,7 +49059,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185" s="25">
         <v>12</v>
       </c>
@@ -49078,7 +49079,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186" s="25">
         <v>12</v>
       </c>
@@ -49094,7 +49095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="25">
         <v>13</v>
       </c>
@@ -49114,7 +49115,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="25">
         <v>13</v>
       </c>
@@ -49134,7 +49135,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189" s="25">
         <v>13</v>
       </c>
@@ -49154,7 +49155,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190" s="25">
         <v>13</v>
       </c>
@@ -49174,7 +49175,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191" s="25">
         <v>13</v>
       </c>
@@ -49194,7 +49195,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192" s="25">
         <v>13</v>
       </c>
@@ -49214,7 +49215,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193" s="25">
         <v>13</v>
       </c>
@@ -49234,7 +49235,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194" s="25">
         <v>13</v>
       </c>
@@ -49254,7 +49255,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195" s="25">
         <v>13</v>
       </c>
@@ -49274,7 +49275,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196" s="25">
         <v>13</v>
       </c>
@@ -49294,7 +49295,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197" s="25">
         <v>13</v>
       </c>
@@ -49314,7 +49315,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198" s="25">
         <v>13</v>
       </c>
@@ -49334,7 +49335,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199" s="25">
         <v>13</v>
       </c>
@@ -49354,7 +49355,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="25">
         <v>13</v>
       </c>
@@ -49374,7 +49375,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="25">
         <v>13</v>
       </c>
@@ -49394,7 +49395,7 @@
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202" s="25">
         <v>13</v>
       </c>
@@ -49414,7 +49415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="203" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203" s="25">
         <v>13</v>
       </c>
@@ -49434,7 +49435,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="204" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204" s="25">
         <v>13</v>
       </c>
@@ -49454,7 +49455,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="205" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205" s="25">
         <v>13</v>
       </c>
@@ -49474,7 +49475,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="206" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206" s="25">
         <v>13</v>
       </c>
@@ -49494,7 +49495,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207" s="25">
         <v>14</v>
       </c>
@@ -49510,7 +49511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208" s="25">
         <v>14</v>
       </c>
@@ -49526,7 +49527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209" s="25">
         <v>14</v>
       </c>
@@ -49542,7 +49543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210" s="25">
         <v>15</v>
       </c>
@@ -49562,7 +49563,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="211" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211" s="25">
         <v>15</v>
       </c>
@@ -49582,7 +49583,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="212" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212" s="25">
         <v>15</v>
       </c>
@@ -49602,7 +49603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="213" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213" s="25">
         <v>15</v>
       </c>
@@ -49622,7 +49623,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="214" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214" s="25">
         <v>15</v>
       </c>
@@ -49642,7 +49643,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="215" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="25">
         <v>15</v>
       </c>
@@ -49662,7 +49663,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="216" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="25">
         <v>16</v>
       </c>
@@ -49678,7 +49679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217" s="25">
         <v>17</v>
       </c>
@@ -49694,7 +49695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="25">
         <v>17</v>
       </c>
@@ -49710,7 +49711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="25">
         <v>18</v>
       </c>
@@ -49726,7 +49727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220" s="25">
         <v>19</v>
       </c>
@@ -49746,7 +49747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221" s="25">
         <v>19</v>
       </c>
@@ -49766,7 +49767,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="222" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222" s="25">
         <v>19</v>
       </c>
@@ -49786,7 +49787,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="223" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223" s="25">
         <v>19</v>
       </c>
@@ -49806,7 +49807,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="224" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224" s="25">
         <v>19</v>
       </c>
@@ -49826,7 +49827,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="25">
         <v>19</v>
       </c>
@@ -49846,7 +49847,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="25">
         <v>19</v>
       </c>
@@ -49866,7 +49867,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="227" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="25">
         <v>19</v>
       </c>
@@ -49886,7 +49887,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="25">
         <v>19</v>
       </c>
@@ -49906,7 +49907,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="229" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229" s="25">
         <v>19</v>
       </c>
@@ -49926,7 +49927,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="230" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230" s="25">
         <v>19</v>
       </c>
@@ -49946,7 +49947,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="231" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231" s="25">
         <v>19</v>
       </c>
@@ -49966,7 +49967,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="232" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232" s="25">
         <v>19</v>
       </c>
@@ -49986,7 +49987,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="233" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233" s="25">
         <v>19</v>
       </c>
@@ -50006,7 +50007,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="234" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234" s="25">
         <v>19</v>
       </c>
@@ -50026,7 +50027,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="25">
         <v>19</v>
       </c>
@@ -50046,7 +50047,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="25">
         <v>19</v>
       </c>
@@ -50066,7 +50067,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="237" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237" s="25">
         <v>19</v>
       </c>
@@ -50086,7 +50087,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="238" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238" s="25">
         <v>19</v>
       </c>
@@ -50106,7 +50107,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="239" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239" s="25">
         <v>19</v>
       </c>
@@ -50126,7 +50127,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="25">
         <v>19</v>
       </c>
@@ -50146,7 +50147,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="25">
         <v>19</v>
       </c>
@@ -50166,7 +50167,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="25">
         <v>19</v>
       </c>
@@ -50186,7 +50187,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="243" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="25">
         <v>19</v>
       </c>
@@ -50206,7 +50207,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="244" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="25">
         <v>19</v>
       </c>
@@ -50226,7 +50227,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="245" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245" s="25">
         <v>19</v>
       </c>
@@ -50246,7 +50247,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246" s="25">
         <v>19</v>
       </c>
@@ -50262,7 +50263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247" s="25">
         <v>20</v>
       </c>
@@ -50278,7 +50279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248" s="25">
         <v>20</v>
       </c>
@@ -50294,7 +50295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="25">
         <v>20</v>
       </c>
@@ -50310,7 +50311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="25">
         <v>20</v>
       </c>
@@ -50326,7 +50327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="25">
         <v>20</v>
       </c>
@@ -50346,7 +50347,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="252" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="25">
         <v>20</v>
       </c>
@@ -50366,7 +50367,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="253" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253" s="25">
         <v>20</v>
       </c>
@@ -50386,7 +50387,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="254" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254" s="25">
         <v>20</v>
       </c>
@@ -50406,7 +50407,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="255" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="25">
         <v>20</v>
       </c>
@@ -50426,7 +50427,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="256" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256" s="25">
         <v>20</v>
       </c>
@@ -50446,7 +50447,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257" s="25">
         <v>20</v>
       </c>
@@ -50466,7 +50467,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="258" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258" s="25">
         <v>20</v>
       </c>
@@ -50486,7 +50487,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259" s="25">
         <v>20</v>
       </c>
@@ -50506,7 +50507,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260" s="25">
         <v>20</v>
       </c>
@@ -50526,7 +50527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261" s="25">
         <v>20</v>
       </c>
@@ -50546,7 +50547,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="25">
         <v>20</v>
       </c>
@@ -50566,7 +50567,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="25">
         <v>20</v>
       </c>
@@ -50586,7 +50587,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="264" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264" s="25">
         <v>20</v>
       </c>
@@ -50606,7 +50607,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265" s="25">
         <v>20</v>
       </c>
@@ -50626,7 +50627,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266" s="25">
         <v>20</v>
       </c>
@@ -50646,7 +50647,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267" s="25">
         <v>20</v>
       </c>
@@ -50666,7 +50667,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="25">
         <v>20</v>
       </c>
@@ -50686,7 +50687,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="25">
         <v>20</v>
       </c>
@@ -50706,7 +50707,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="25">
         <v>20</v>
       </c>
@@ -50726,7 +50727,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="25">
         <v>20</v>
       </c>
@@ -50746,7 +50747,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="25">
         <v>20</v>
       </c>
@@ -50766,7 +50767,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="273" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="25">
         <v>20</v>
       </c>
@@ -50786,7 +50787,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="274" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="25">
         <v>20</v>
       </c>
@@ -50806,7 +50807,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="25">
         <v>20</v>
       </c>
@@ -50822,7 +50823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="25">
         <v>20</v>
       </c>
@@ -50842,7 +50843,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="25">
         <v>20</v>
       </c>
@@ -50862,7 +50863,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="278" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="25">
         <v>20</v>
       </c>
@@ -50882,7 +50883,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="25">
         <v>20</v>
       </c>
@@ -50902,7 +50903,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="280" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280" s="25">
         <v>20</v>
       </c>
@@ -50922,7 +50923,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="25">
         <v>20</v>
       </c>
@@ -50942,7 +50943,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="25">
         <v>20</v>
       </c>
@@ -50962,7 +50963,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283" s="25">
         <v>20</v>
       </c>
@@ -50982,7 +50983,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="284" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284" s="25">
         <v>20</v>
       </c>
@@ -51002,7 +51003,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285" s="25">
         <v>20</v>
       </c>
@@ -51022,7 +51023,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="286" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286" s="25">
         <v>20</v>
       </c>
@@ -51042,7 +51043,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287" s="25">
         <v>20</v>
       </c>
@@ -51062,7 +51063,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="25">
         <v>20</v>
       </c>
@@ -51082,7 +51083,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="25">
         <v>20</v>
       </c>
@@ -51102,7 +51103,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="290" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="25">
         <v>20</v>
       </c>
@@ -51122,7 +51123,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="25">
         <v>20</v>
       </c>
@@ -51142,7 +51143,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="292" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292" s="25">
         <v>20</v>
       </c>
@@ -51162,7 +51163,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="293" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293" s="25">
         <v>20</v>
       </c>
@@ -51182,7 +51183,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="294" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294" s="25">
         <v>20</v>
       </c>
@@ -51198,7 +51199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="25">
         <v>20</v>
       </c>
@@ -51214,7 +51215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="25">
         <v>20</v>
       </c>
@@ -51234,7 +51235,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="297" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297" s="25">
         <v>20</v>
       </c>
@@ -51254,7 +51255,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="298" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298" s="25">
         <v>20</v>
       </c>
@@ -51274,7 +51275,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="299" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299" s="25">
         <v>20</v>
       </c>
@@ -51294,7 +51295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="300" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300" s="25">
         <v>20</v>
       </c>
@@ -51314,7 +51315,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="301" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="25">
         <v>20</v>
       </c>
@@ -51334,7 +51335,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="25">
         <v>21</v>
       </c>
@@ -51348,7 +51349,7 @@
       </c>
       <c r="F302" s="28"/>
     </row>
-    <row r="303" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="25">
         <v>22</v>
       </c>
@@ -51364,7 +51365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="25">
         <v>23</v>
       </c>
@@ -51380,7 +51381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305" s="25">
         <v>24</v>
       </c>
@@ -51396,7 +51397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306" s="25">
         <v>24</v>
       </c>
@@ -51412,7 +51413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307" s="25">
         <v>24</v>
       </c>
@@ -51428,7 +51429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308" s="25">
         <v>25</v>
       </c>
@@ -51448,7 +51449,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="309" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309" s="25">
         <v>25</v>
       </c>
@@ -51468,7 +51469,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310" s="25">
         <v>25</v>
       </c>
@@ -51488,7 +51489,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="311" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311" s="25">
         <v>25</v>
       </c>
@@ -51508,7 +51509,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="312" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312" s="25">
         <v>25</v>
       </c>
@@ -51528,7 +51529,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="313" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313" s="25">
         <v>25</v>
       </c>
@@ -51548,7 +51549,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="314" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314" s="25">
         <v>25</v>
       </c>
@@ -51564,7 +51565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315" s="25">
         <v>25</v>
       </c>
@@ -51580,7 +51581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="25">
         <v>25</v>
       </c>
@@ -51596,7 +51597,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="25">
         <v>25</v>
       </c>
@@ -51612,7 +51613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318" s="25">
         <v>26</v>
       </c>
@@ -51628,7 +51629,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319" s="25">
         <v>26</v>
       </c>
@@ -51644,7 +51645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320" s="25">
         <v>26</v>
       </c>
@@ -51660,7 +51661,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321" s="25">
         <v>26</v>
       </c>
@@ -51676,7 +51677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322" s="25">
         <v>27</v>
       </c>
@@ -51692,7 +51693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323" s="25">
         <v>28</v>
       </c>
@@ -51708,7 +51709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324" s="25">
         <v>28</v>
       </c>
@@ -51724,7 +51725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="25">
         <v>28</v>
       </c>
@@ -51740,7 +51741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="25">
         <v>28</v>
       </c>
@@ -51756,7 +51757,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="25">
         <v>29</v>
       </c>
@@ -51770,7 +51771,7 @@
       </c>
       <c r="F327" s="28"/>
     </row>
-    <row r="328" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="25">
         <v>30</v>
       </c>
@@ -51786,7 +51787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329" s="25">
         <v>31</v>
       </c>
@@ -51802,7 +51803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330" s="25">
         <v>31</v>
       </c>
@@ -51822,7 +51823,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="331" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331" s="25">
         <v>31</v>
       </c>
@@ -51842,7 +51843,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="332" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332" s="25">
         <v>31</v>
       </c>
@@ -51862,7 +51863,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="333" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333" s="25">
         <v>31</v>
       </c>
@@ -51882,7 +51883,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="334" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="25">
         <v>31</v>
       </c>
@@ -51902,7 +51903,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="335" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="25">
         <v>31</v>
       </c>
@@ -51922,7 +51923,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="336" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="25">
         <v>31</v>
       </c>
@@ -51938,7 +51939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="25">
         <v>31</v>
       </c>
@@ -51954,7 +51955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="25">
         <v>31</v>
       </c>
@@ -51970,7 +51971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="25">
         <v>32</v>
       </c>
@@ -51990,7 +51991,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="340" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="25">
         <v>32</v>
       </c>
@@ -52010,7 +52011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="341" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="25">
         <v>32</v>
       </c>
@@ -52030,7 +52031,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="342" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342" s="25">
         <v>32</v>
       </c>
@@ -52050,7 +52051,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="343" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343" s="25">
         <v>32</v>
       </c>
@@ -52070,7 +52071,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="344" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344" s="25">
         <v>32</v>
       </c>
@@ -52090,7 +52091,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="345" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345" s="25">
         <v>32</v>
       </c>
@@ -52110,7 +52111,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="346" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346" s="25">
         <v>32</v>
       </c>
@@ -52130,7 +52131,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="347" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347" s="25">
         <v>32</v>
       </c>
@@ -52150,7 +52151,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="348" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348" s="25">
         <v>32</v>
       </c>
@@ -52170,7 +52171,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="349" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349" s="25">
         <v>32</v>
       </c>
@@ -52190,7 +52191,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="350" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="25">
         <v>32</v>
       </c>
@@ -52210,7 +52211,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="351" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="25">
         <v>33</v>
       </c>
@@ -52226,7 +52227,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="25">
         <v>33</v>
       </c>
@@ -52242,7 +52243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="25">
         <v>34</v>
       </c>
@@ -52258,7 +52259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354" s="25">
         <v>35</v>
       </c>
@@ -52274,7 +52275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="25">
         <v>36</v>
       </c>
@@ -52966,7 +52967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="25">
         <v>38</v>
       </c>
@@ -52982,7 +52983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391" s="25">
         <v>39</v>
       </c>
@@ -52996,7 +52997,7 @@
       </c>
       <c r="F391" s="28"/>
     </row>
-    <row r="392" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392" s="25">
         <v>40</v>
       </c>
@@ -53012,7 +53013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393" s="25">
         <v>41</v>
       </c>
@@ -53032,7 +53033,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="25">
         <v>41</v>
       </c>
@@ -53052,7 +53053,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="25">
         <v>41</v>
       </c>
@@ -53072,7 +53073,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="396" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396" s="25">
         <v>41</v>
       </c>
@@ -53092,7 +53093,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="397" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397" s="25">
         <v>41</v>
       </c>
@@ -53112,7 +53113,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="398" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398" s="25">
         <v>41</v>
       </c>
@@ -53132,7 +53133,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399" s="25">
         <v>41</v>
       </c>
@@ -53152,7 +53153,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="400" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="25">
         <v>41</v>
       </c>
@@ -53172,7 +53173,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="401" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="25">
         <v>41</v>
       </c>
@@ -53188,7 +53189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="402" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402" s="25">
         <v>41</v>
       </c>
@@ -53208,7 +53209,7 @@
         <v>0.68</v>
       </c>
     </row>
-    <row r="403" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403" s="25">
         <v>41</v>
       </c>
@@ -53228,7 +53229,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="404" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404" s="25">
         <v>41</v>
       </c>
@@ -53248,7 +53249,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="405" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405" s="25">
         <v>41</v>
       </c>
@@ -53268,7 +53269,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="406" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406" s="25">
         <v>41</v>
       </c>
@@ -53288,7 +53289,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="407" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407" s="25">
         <v>41</v>
       </c>
@@ -53308,7 +53309,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="25">
         <v>41</v>
       </c>
@@ -53328,7 +53329,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="409" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="25">
         <v>41</v>
       </c>
@@ -53348,7 +53349,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410" s="25">
         <v>41</v>
       </c>
@@ -53368,7 +53369,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="25">
         <v>41</v>
       </c>
@@ -53388,7 +53389,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="25">
         <v>41</v>
       </c>
@@ -53408,7 +53409,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="413" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413" s="25">
         <v>41</v>
       </c>
@@ -53428,7 +53429,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="414" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414" s="25">
         <v>41</v>
       </c>
@@ -53448,7 +53449,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="415" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="25">
         <v>41</v>
       </c>
@@ -53468,7 +53469,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="25">
         <v>41</v>
       </c>
@@ -53488,7 +53489,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="417" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="25">
         <v>41</v>
       </c>
@@ -53508,7 +53509,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="418" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="25">
         <v>41</v>
       </c>
@@ -53524,7 +53525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419" s="25">
         <v>41</v>
       </c>
@@ -53544,7 +53545,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="420" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420" s="25">
         <v>41</v>
       </c>
@@ -53564,7 +53565,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="421" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421" s="25">
         <v>41</v>
       </c>
@@ -53584,7 +53585,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="422" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="25">
         <v>41</v>
       </c>
@@ -53604,7 +53605,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="25">
         <v>41</v>
       </c>
@@ -53624,7 +53625,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424" s="25">
         <v>41</v>
       </c>
@@ -53644,7 +53645,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425" s="25">
         <v>41</v>
       </c>
@@ -53664,7 +53665,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426" s="25">
         <v>41</v>
       </c>
@@ -53684,7 +53685,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427" s="25">
         <v>41</v>
       </c>
@@ -53700,7 +53701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428" s="25">
         <v>41</v>
       </c>
@@ -53720,7 +53721,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="429" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="25">
         <v>41</v>
       </c>
@@ -53740,7 +53741,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="25">
         <v>41</v>
       </c>
@@ -53760,7 +53761,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431" s="25">
         <v>41</v>
       </c>
@@ -53780,7 +53781,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="432" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432" s="25">
         <v>41</v>
       </c>
@@ -53800,7 +53801,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="433" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433" s="25">
         <v>41</v>
       </c>
@@ -53820,7 +53821,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="434" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434" s="25">
         <v>41</v>
       </c>
@@ -53840,7 +53841,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="435" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435" s="25">
         <v>41</v>
       </c>
@@ -53860,7 +53861,7 @@
         <v>-0.1</v>
       </c>
     </row>
-    <row r="436" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436" s="25">
         <v>41</v>
       </c>
@@ -53880,7 +53881,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="437" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437" s="25">
         <v>41</v>
       </c>
@@ -53900,7 +53901,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="438" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438" s="25">
         <v>41</v>
       </c>
@@ -53920,7 +53921,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="439" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439" s="25">
         <v>41</v>
       </c>
@@ -53940,7 +53941,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="440" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="25">
         <v>41</v>
       </c>
@@ -53960,7 +53961,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="441" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="25">
         <v>41</v>
       </c>
@@ -53980,7 +53981,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="442" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="25">
         <v>41</v>
       </c>
@@ -54000,7 +54001,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="443" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="25">
         <v>41</v>
       </c>
@@ -54020,7 +54021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="444" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444" s="25">
         <v>41</v>
       </c>
@@ -54040,7 +54041,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="445" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445" s="25">
         <v>41</v>
       </c>
@@ -54060,7 +54061,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="446" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446" s="25">
         <v>41</v>
       </c>
@@ -54080,7 +54081,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="447" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="25">
         <v>41</v>
       </c>
@@ -54100,7 +54101,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="448" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="25">
         <v>41</v>
       </c>
@@ -54120,7 +54121,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449" s="25">
         <v>41</v>
       </c>
@@ -54140,7 +54141,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="450" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450" s="25">
         <v>41</v>
       </c>
@@ -54160,7 +54161,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="451" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="25">
         <v>41</v>
       </c>
@@ -54180,7 +54181,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="25">
         <v>41</v>
       </c>
@@ -54200,7 +54201,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="453" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453" s="25">
         <v>41</v>
       </c>
@@ -54220,7 +54221,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454" s="25">
         <v>41</v>
       </c>
@@ -54240,7 +54241,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="455" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455" s="25">
         <v>41</v>
       </c>
@@ -54260,7 +54261,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456" s="25">
         <v>41</v>
       </c>
@@ -54280,7 +54281,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="25">
         <v>41</v>
       </c>
@@ -54300,7 +54301,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="25">
         <v>41</v>
       </c>
@@ -54320,7 +54321,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="459" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459" s="25">
         <v>41</v>
       </c>
@@ -54340,7 +54341,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="460" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="25">
         <v>41</v>
       </c>
@@ -54360,7 +54361,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="461" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="25">
         <v>41</v>
       </c>
@@ -54380,7 +54381,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="462" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462" s="25">
         <v>41</v>
       </c>
@@ -54400,7 +54401,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="463" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463" s="25">
         <v>41</v>
       </c>
@@ -54420,7 +54421,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="464" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464" s="25">
         <v>41</v>
       </c>
@@ -54440,7 +54441,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="465" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465" s="25">
         <v>41</v>
       </c>
@@ -54460,7 +54461,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="466" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466" s="25">
         <v>41</v>
       </c>
@@ -54480,7 +54481,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="467" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467" s="25">
         <v>41</v>
       </c>
@@ -54500,7 +54501,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="468" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468" s="25">
         <v>42</v>
       </c>
@@ -54520,7 +54521,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="469" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469" s="25">
         <v>42</v>
       </c>
@@ -54540,7 +54541,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="470" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="25">
         <v>42</v>
       </c>
@@ -54560,7 +54561,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="471" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="25">
         <v>42</v>
       </c>
@@ -54580,7 +54581,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="472" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472" s="25">
         <v>42</v>
       </c>
@@ -54600,7 +54601,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="473" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473" s="25">
         <v>42</v>
       </c>
@@ -54620,7 +54621,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="474" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474" s="25">
         <v>42</v>
       </c>
@@ -54640,7 +54641,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="475" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="25">
         <v>42</v>
       </c>
@@ -54660,7 +54661,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="476" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="25">
         <v>42</v>
       </c>
@@ -54680,7 +54681,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="477" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477" s="25">
         <v>42</v>
       </c>
@@ -54700,7 +54701,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="478" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478" s="25">
         <v>42</v>
       </c>
@@ -54716,7 +54717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="479" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479" s="25">
         <v>43</v>
       </c>
@@ -54732,7 +54733,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480" s="25">
         <v>43</v>
       </c>
@@ -54748,7 +54749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="481" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481" s="25">
         <v>43</v>
       </c>
@@ -54764,7 +54765,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="482" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482" s="25">
         <v>43</v>
       </c>
@@ -54780,7 +54781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="483" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483" s="25">
         <v>43</v>
       </c>
@@ -54796,7 +54797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="484" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="25">
         <v>43</v>
       </c>
@@ -54812,7 +54813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="485" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="25">
         <v>43</v>
       </c>
@@ -54828,7 +54829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="486" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486" s="25">
         <v>43</v>
       </c>
@@ -54844,7 +54845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="487" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487" s="25">
         <v>43</v>
       </c>
@@ -54860,7 +54861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="488" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488" s="25">
         <v>43</v>
       </c>
@@ -54876,7 +54877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="489" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489" s="25">
         <v>43</v>
       </c>
@@ -54892,7 +54893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="490" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490" s="25">
         <v>43</v>
       </c>
@@ -54908,7 +54909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="491" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491" s="25">
         <v>43</v>
       </c>
@@ -54924,7 +54925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="492" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492" s="25">
         <v>44</v>
       </c>
@@ -54940,7 +54941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493" s="25">
         <v>45</v>
       </c>
@@ -54960,7 +54961,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="494" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494" s="25">
         <v>45</v>
       </c>
@@ -54980,7 +54981,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="495" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495" s="25">
         <v>45</v>
       </c>
@@ -55000,7 +55001,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="496" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="25">
         <v>45</v>
       </c>
@@ -55020,7 +55021,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="497" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="25">
         <v>45</v>
       </c>
@@ -55040,7 +55041,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="498" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498" s="25">
         <v>45</v>
       </c>
@@ -55060,7 +55061,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="499" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="25">
         <v>45</v>
       </c>
@@ -55080,7 +55081,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="500" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="25">
         <v>45</v>
       </c>
@@ -55100,7 +55101,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="501" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="25">
         <v>45</v>
       </c>
@@ -55120,7 +55121,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="502" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="25">
         <v>45</v>
       </c>
@@ -55140,7 +55141,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="503" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503" s="25">
         <v>45</v>
       </c>
@@ -55160,7 +55161,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="504" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504" s="25">
         <v>45</v>
       </c>
@@ -55180,7 +55181,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="505" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505" s="25">
         <v>45</v>
       </c>
@@ -55196,7 +55197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="506" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506" s="25">
         <v>46</v>
       </c>
@@ -55212,7 +55213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="507" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507" s="25">
         <v>47</v>
       </c>
@@ -55228,7 +55229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="508" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508" s="25">
         <v>48</v>
       </c>
@@ -55244,7 +55245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="509" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509" s="25">
         <v>48</v>
       </c>
@@ -55260,7 +55261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="510" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510" s="25">
         <v>48</v>
       </c>
@@ -55276,7 +55277,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="511" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511" s="25">
         <v>48</v>
       </c>
@@ -55292,7 +55293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="512" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512" s="25">
         <v>48</v>
       </c>
@@ -55308,7 +55309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="513" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513" s="25">
         <v>49</v>
       </c>
@@ -55324,7 +55325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="514" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514" s="25">
         <v>49</v>
       </c>
@@ -55340,7 +55341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="515" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515" s="25">
         <v>49</v>
       </c>
@@ -55356,7 +55357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="516" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516" s="25">
         <v>50</v>
       </c>
@@ -55372,7 +55373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="517" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517" s="25">
         <v>50</v>
       </c>
@@ -55388,7 +55389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="518" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518" s="25">
         <v>50</v>
       </c>
@@ -55404,7 +55405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="519" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519" s="25">
         <v>50</v>
       </c>
@@ -55420,7 +55421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="520" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520" s="25">
         <v>51</v>
       </c>
@@ -55434,7 +55435,7 @@
       </c>
       <c r="F520" s="28"/>
     </row>
-    <row r="521" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521" s="25">
         <v>52</v>
       </c>
@@ -55454,7 +55455,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="522" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522" s="25">
         <v>52</v>
       </c>
@@ -55474,7 +55475,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="523" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523" s="25">
         <v>52</v>
       </c>
@@ -55494,7 +55495,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="524" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524" s="25">
         <v>52</v>
       </c>
@@ -55514,7 +55515,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="525" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525" s="25">
         <v>52</v>
       </c>
@@ -55534,7 +55535,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="526" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526" s="25">
         <v>52</v>
       </c>
@@ -55554,7 +55555,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="527" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527" s="25">
         <v>52</v>
       </c>
@@ -55574,7 +55575,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="528" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528" s="25">
         <v>52</v>
       </c>
@@ -55594,7 +55595,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="529" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529" s="25">
         <v>52</v>
       </c>
@@ -55614,7 +55615,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="530" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530" s="25">
         <v>52</v>
       </c>
@@ -55634,7 +55635,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="531" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531" s="25">
         <v>52</v>
       </c>
@@ -55654,7 +55655,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="532" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532" s="25">
         <v>52</v>
       </c>
@@ -55674,7 +55675,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="533" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533" s="25">
         <v>52</v>
       </c>
@@ -55694,7 +55695,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="534" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534" s="25">
         <v>52</v>
       </c>
@@ -55714,7 +55715,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="535" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535" s="25">
         <v>52</v>
       </c>
@@ -55734,7 +55735,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="536" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536" s="25">
         <v>52</v>
       </c>
@@ -55754,7 +55755,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="537" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537" s="25">
         <v>52</v>
       </c>
@@ -55774,7 +55775,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="538" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538" s="25">
         <v>52</v>
       </c>
@@ -55794,7 +55795,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="539" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539" s="25">
         <v>52</v>
       </c>
@@ -55810,7 +55811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="540" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540" s="25">
         <v>53</v>
       </c>
@@ -55826,7 +55827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="541" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541" s="25">
         <v>54</v>
       </c>
@@ -55842,7 +55843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="542" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542" s="25">
         <v>54</v>
       </c>
@@ -55858,7 +55859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="543" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543" s="25">
         <v>54</v>
       </c>
@@ -55874,7 +55875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="544" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544" s="25">
         <v>55</v>
       </c>
@@ -55890,7 +55891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="545" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545" s="25">
         <v>55</v>
       </c>
@@ -55906,7 +55907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="546" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546" s="25">
         <v>56</v>
       </c>
@@ -55922,7 +55923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="547" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547" s="25">
         <v>57</v>
       </c>
@@ -55938,7 +55939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="548" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548" s="25">
         <v>57</v>
       </c>
@@ -55954,7 +55955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="549" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549" s="25">
         <v>57</v>
       </c>
@@ -55970,7 +55971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="550" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550" s="25">
         <v>57</v>
       </c>
@@ -55990,7 +55991,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="551" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551" s="25">
         <v>57</v>
       </c>
@@ -56010,7 +56011,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="552" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552" s="25">
         <v>57</v>
       </c>
@@ -56030,7 +56031,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="553" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553" s="25">
         <v>57</v>
       </c>
@@ -56050,7 +56051,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="554" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554" s="25">
         <v>57</v>
       </c>
@@ -56070,7 +56071,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="555" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555" s="25">
         <v>57</v>
       </c>
@@ -56090,7 +56091,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="556" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556" s="25">
         <v>57</v>
       </c>
@@ -56106,7 +56107,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="557" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557" s="25">
         <v>57</v>
       </c>
@@ -56122,7 +56123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="558" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558" s="25">
         <v>57</v>
       </c>
@@ -56138,7 +56139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="559" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559" s="25">
         <v>57</v>
       </c>
@@ -56154,7 +56155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="560" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560" s="25">
         <v>57</v>
       </c>
@@ -56170,7 +56171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="561" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561" s="25">
         <v>58</v>
       </c>
@@ -56186,7 +56187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="562" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562" s="25">
         <v>58</v>
       </c>
@@ -56202,7 +56203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="563" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563" s="25">
         <v>58</v>
       </c>
@@ -56218,7 +56219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="564" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564" s="25">
         <v>58</v>
       </c>
@@ -56234,7 +56235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="565" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565" s="25">
         <v>59</v>
       </c>
@@ -56250,7 +56251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="566" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566" s="25">
         <v>59</v>
       </c>
@@ -56266,7 +56267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="567" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567" s="25">
         <v>59</v>
       </c>
@@ -56282,7 +56283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="568" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568" s="25">
         <v>59</v>
       </c>
@@ -56298,7 +56299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="569" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569" s="25">
         <v>60</v>
       </c>
@@ -56314,7 +56315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="570" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570" s="25">
         <v>61</v>
       </c>
@@ -56330,7 +56331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="571" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571" s="25">
         <v>61</v>
       </c>
@@ -56350,7 +56351,7 @@
         <v>0.96</v>
       </c>
     </row>
-    <row r="572" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572" s="25">
         <v>61</v>
       </c>
@@ -56370,7 +56371,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="573" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573" s="25">
         <v>61</v>
       </c>
@@ -56390,7 +56391,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="574" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574" s="25">
         <v>61</v>
       </c>
@@ -56410,7 +56411,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="575" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575" s="25">
         <v>61</v>
       </c>
@@ -56430,7 +56431,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="576" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576" s="25">
         <v>61</v>
       </c>
@@ -56450,7 +56451,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="577" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577" s="25">
         <v>61</v>
       </c>
@@ -56470,7 +56471,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="578" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578" s="25">
         <v>61</v>
       </c>
@@ -56486,7 +56487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="579" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579" s="25">
         <v>61</v>
       </c>
@@ -56506,7 +56507,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="580" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580" s="25">
         <v>61</v>
       </c>
@@ -56526,7 +56527,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="581" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581" s="25">
         <v>61</v>
       </c>
@@ -56546,7 +56547,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="582" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582" s="25">
         <v>61</v>
       </c>
@@ -56566,7 +56567,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="583" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583" s="25">
         <v>61</v>
       </c>
@@ -56586,7 +56587,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="584" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584" s="25">
         <v>61</v>
       </c>
@@ -56606,7 +56607,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="585" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585" s="25">
         <v>61</v>
       </c>
@@ -56626,7 +56627,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="586" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586" s="25">
         <v>61</v>
       </c>
@@ -56646,7 +56647,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="587" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587" s="25">
         <v>61</v>
       </c>
@@ -56666,7 +56667,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="588" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588" s="25">
         <v>61</v>
       </c>
@@ -56686,7 +56687,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="589" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589" s="25">
         <v>61</v>
       </c>
@@ -56706,7 +56707,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="590" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590" s="25">
         <v>61</v>
       </c>
@@ -56726,7 +56727,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="591" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591" s="25">
         <v>61</v>
       </c>
@@ -56746,7 +56747,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="592" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592" s="25">
         <v>61</v>
       </c>
@@ -56766,7 +56767,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="593" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593" s="25">
         <v>61</v>
       </c>
@@ -56786,7 +56787,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="594" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594" s="25">
         <v>61</v>
       </c>
@@ -56806,7 +56807,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="595" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595" s="25">
         <v>61</v>
       </c>
@@ -56822,7 +56823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="596" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596" s="25">
         <v>62</v>
       </c>
@@ -56838,7 +56839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="597" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597" s="25">
         <v>63</v>
       </c>
@@ -56854,7 +56855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="598" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598" s="25">
         <v>63</v>
       </c>
@@ -56870,7 +56871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="599" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599" s="25">
         <v>63</v>
       </c>
@@ -56886,7 +56887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="600" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600" s="25">
         <v>64</v>
       </c>
@@ -56902,7 +56903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="601" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601" s="25">
         <v>65</v>
       </c>
@@ -56922,7 +56923,7 @@
         <v>0.84</v>
       </c>
     </row>
-    <row r="602" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602" s="25">
         <v>65</v>
       </c>
@@ -56942,7 +56943,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="603" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603" s="25">
         <v>65</v>
       </c>
@@ -56962,7 +56963,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="604" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604" s="25">
         <v>65</v>
       </c>
@@ -56982,7 +56983,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="605" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605" s="25">
         <v>65</v>
       </c>
@@ -57002,7 +57003,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="606" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606" s="25">
         <v>65</v>
       </c>
@@ -57022,7 +57023,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="607" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607" s="25">
         <v>65</v>
       </c>
@@ -57042,7 +57043,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="608" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608" s="25">
         <v>65</v>
       </c>
@@ -57062,7 +57063,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="609" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609" s="25">
         <v>66</v>
       </c>
@@ -57078,7 +57079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="610" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610" s="25">
         <v>66</v>
       </c>
@@ -57098,7 +57099,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="611" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611" s="25">
         <v>66</v>
       </c>
@@ -57118,7 +57119,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="612" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612" s="25">
         <v>66</v>
       </c>
@@ -57138,7 +57139,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="613" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613" s="25">
         <v>66</v>
       </c>
@@ -57158,7 +57159,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="614" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614" s="25">
         <v>66</v>
       </c>
@@ -57178,7 +57179,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="615" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615" s="25">
         <v>66</v>
       </c>
@@ -57198,7 +57199,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="616" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616" s="25">
         <v>66</v>
       </c>
@@ -57218,7 +57219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="617" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617" s="25">
         <v>66</v>
       </c>
@@ -57238,7 +57239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="618" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618" s="25">
         <v>66</v>
       </c>
@@ -57254,7 +57255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="619" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619" s="25">
         <v>67</v>
       </c>
@@ -57274,7 +57275,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="620" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620" s="25">
         <v>67</v>
       </c>
@@ -57294,7 +57295,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="621" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621" s="25">
         <v>67</v>
       </c>
@@ -57314,7 +57315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="622" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622" s="25">
         <v>67</v>
       </c>
@@ -57334,7 +57335,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="623" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623" s="25">
         <v>67</v>
       </c>
@@ -57354,7 +57355,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="624" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624" s="25">
         <v>67</v>
       </c>
@@ -57374,7 +57375,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="625" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625" s="25">
         <v>67</v>
       </c>
@@ -57394,7 +57395,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="626" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626" s="25">
         <v>67</v>
       </c>
@@ -57414,7 +57415,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="627" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627" s="25">
         <v>67</v>
       </c>
@@ -57434,7 +57435,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="628" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628" s="25">
         <v>67</v>
       </c>
@@ -57454,7 +57455,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="629" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629" s="25">
         <v>67</v>
       </c>
@@ -57474,7 +57475,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="630" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630" s="25">
         <v>67</v>
       </c>
@@ -57494,7 +57495,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="631" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631" s="25">
         <v>67</v>
       </c>
@@ -57514,7 +57515,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="632" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632" s="25">
         <v>67</v>
       </c>
@@ -57530,7 +57531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="633" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633" s="25">
         <v>68</v>
       </c>
@@ -57546,7 +57547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="634" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634" s="25">
         <v>69</v>
       </c>
@@ -57562,7 +57563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="635" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635" s="25">
         <v>70</v>
       </c>
@@ -57582,7 +57583,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="636" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636" s="25">
         <v>70</v>
       </c>
@@ -57602,7 +57603,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="637" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637" s="25">
         <v>70</v>
       </c>
@@ -57622,7 +57623,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="638" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638" s="25">
         <v>70</v>
       </c>
@@ -57642,7 +57643,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="639" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639" s="25">
         <v>70</v>
       </c>
@@ -57662,7 +57663,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="640" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640" s="25">
         <v>70</v>
       </c>
@@ -57682,7 +57683,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="641" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641" s="25">
         <v>70</v>
       </c>
@@ -57702,7 +57703,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="642" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642" s="25">
         <v>70</v>
       </c>
@@ -57722,7 +57723,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="643" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643" s="25">
         <v>70</v>
       </c>
@@ -57742,7 +57743,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="644" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644" s="25">
         <v>70</v>
       </c>
@@ -57762,7 +57763,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="645" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645" s="25">
         <v>70</v>
       </c>
@@ -57778,7 +57779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="646" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646" s="25">
         <v>70</v>
       </c>
@@ -57798,7 +57799,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="647" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647" s="25">
         <v>70</v>
       </c>
@@ -57818,7 +57819,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="648" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648" s="25">
         <v>70</v>
       </c>
@@ -57838,7 +57839,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="649" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649" s="25">
         <v>70</v>
       </c>
@@ -57858,7 +57859,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="650" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650" s="25">
         <v>70</v>
       </c>
@@ -57878,7 +57879,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="651" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651" s="25">
         <v>70</v>
       </c>
@@ -57898,7 +57899,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="652" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652" s="25">
         <v>70</v>
       </c>
@@ -57918,7 +57919,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="653" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653" s="25">
         <v>70</v>
       </c>
@@ -57938,7 +57939,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="654" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654" s="25">
         <v>70</v>
       </c>
@@ -57958,7 +57959,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="655" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655" s="25">
         <v>70</v>
       </c>
@@ -57978,7 +57979,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="656" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656" s="25">
         <v>70</v>
       </c>
@@ -57998,7 +57999,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="657" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657" s="25">
         <v>70</v>
       </c>
@@ -58018,7 +58019,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="658" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658" s="25">
         <v>70</v>
       </c>
@@ -58034,7 +58035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="659" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659" s="25">
         <v>70</v>
       </c>
@@ -58054,7 +58055,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="660" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660" s="25">
         <v>70</v>
       </c>
@@ -58074,7 +58075,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="661" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661" s="25">
         <v>70</v>
       </c>
@@ -58094,7 +58095,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="662" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662" s="25">
         <v>70</v>
       </c>
@@ -58114,7 +58115,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="663" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663" s="25">
         <v>70</v>
       </c>
@@ -58134,7 +58135,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="664" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664" s="25">
         <v>70</v>
       </c>
@@ -58154,7 +58155,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="665" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665" s="25">
         <v>71</v>
       </c>
@@ -58170,7 +58171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="666" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666" s="25">
         <v>72</v>
       </c>
@@ -58190,7 +58191,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="667" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667" s="25">
         <v>72</v>
       </c>
@@ -58210,7 +58211,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="668" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668" s="25">
         <v>72</v>
       </c>
@@ -58230,7 +58231,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="669" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669" s="25">
         <v>72</v>
       </c>
@@ -58250,7 +58251,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="670" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670" s="25">
         <v>72</v>
       </c>
@@ -58270,7 +58271,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="671" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671" s="25">
         <v>73</v>
       </c>
@@ -58286,7 +58287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="672" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672" s="25">
         <v>73</v>
       </c>
@@ -58302,7 +58303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="673" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673" s="25">
         <v>73</v>
       </c>
@@ -58322,7 +58323,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="674" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674" s="25">
         <v>73</v>
       </c>
@@ -58342,7 +58343,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="675" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675" s="25">
         <v>73</v>
       </c>
@@ -58362,7 +58363,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="676" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676" s="25">
         <v>73</v>
       </c>
@@ -58382,7 +58383,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="677" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677" s="25">
         <v>73</v>
       </c>
@@ -58402,7 +58403,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="678" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678" s="25">
         <v>73</v>
       </c>
@@ -58422,7 +58423,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="679" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679" s="25">
         <v>73</v>
       </c>
@@ -58442,7 +58443,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="680" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680" s="25">
         <v>73</v>
       </c>
@@ -58462,7 +58463,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="681" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681" s="25">
         <v>73</v>
       </c>
@@ -58482,7 +58483,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="682" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682" s="25">
         <v>73</v>
       </c>
@@ -58502,7 +58503,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="683" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683" s="25">
         <v>73</v>
       </c>
@@ -58522,7 +58523,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="684" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684" s="25">
         <v>73</v>
       </c>
@@ -58542,7 +58543,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="685" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685" s="25">
         <v>73</v>
       </c>
@@ -58562,7 +58563,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="686" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686" s="25">
         <v>73</v>
       </c>
@@ -58582,7 +58583,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="687" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A687" s="25">
         <v>73</v>
       </c>
@@ -58602,7 +58603,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="688" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A688" s="25">
         <v>73</v>
       </c>
@@ -58622,7 +58623,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="689" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A689" s="25">
         <v>73</v>
       </c>
@@ -58642,7 +58643,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="690" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A690" s="25">
         <v>73</v>
       </c>
@@ -58662,7 +58663,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="691" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A691" s="25">
         <v>73</v>
       </c>
@@ -58678,7 +58679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="692" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A692" s="25">
         <v>74</v>
       </c>
@@ -58698,7 +58699,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="693" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A693" s="25">
         <v>74</v>
       </c>
@@ -58718,7 +58719,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="694" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A694" s="25">
         <v>74</v>
       </c>
@@ -58738,7 +58739,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="695" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A695" s="25">
         <v>74</v>
       </c>
@@ -58758,7 +58759,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="696" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A696" s="25">
         <v>74</v>
       </c>
@@ -58778,7 +58779,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="697" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A697" s="25">
         <v>74</v>
       </c>
@@ -58798,7 +58799,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="698" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A698" s="25">
         <v>74</v>
       </c>
@@ -58818,7 +58819,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="699" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A699" s="25">
         <v>74</v>
       </c>
@@ -58838,7 +58839,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="700" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A700" s="25">
         <v>74</v>
       </c>
@@ -58858,7 +58859,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="701" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A701" s="25">
         <v>74</v>
       </c>
@@ -58878,7 +58879,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="702" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A702" s="25">
         <v>74</v>
       </c>
@@ -58898,7 +58899,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="703" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A703" s="25">
         <v>74</v>
       </c>
@@ -58918,7 +58919,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="704" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A704" s="25">
         <v>74</v>
       </c>
@@ -58938,7 +58939,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="705" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A705" s="25">
         <v>74</v>
       </c>
@@ -58958,7 +58959,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="706" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A706" s="25">
         <v>74</v>
       </c>
@@ -58978,7 +58979,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="707" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A707" s="25">
         <v>74</v>
       </c>
@@ -58998,7 +58999,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="708" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="708" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A708" s="25">
         <v>74</v>
       </c>
@@ -59018,7 +59019,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="709" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="709" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A709" s="25">
         <v>74</v>
       </c>
@@ -59038,7 +59039,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="710" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="710" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A710" s="25">
         <v>74</v>
       </c>
@@ -59058,7 +59059,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="711" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="711" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A711" s="25">
         <v>74</v>
       </c>
@@ -59078,7 +59079,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="712" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="712" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A712" s="25">
         <v>74</v>
       </c>
@@ -59098,7 +59099,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="713" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="713" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A713" s="25">
         <v>74</v>
       </c>
@@ -59118,7 +59119,7 @@
         <v>0.46</v>
       </c>
     </row>
-    <row r="714" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="714" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A714" s="25">
         <v>74</v>
       </c>
@@ -59138,7 +59139,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="715" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="715" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A715" s="25">
         <v>74</v>
       </c>
@@ -59158,7 +59159,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="716" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="716" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A716" s="25">
         <v>74</v>
       </c>
@@ -59178,7 +59179,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="717" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="717" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A717" s="25">
         <v>74</v>
       </c>
@@ -59198,7 +59199,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="718" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="718" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A718" s="25">
         <v>74</v>
       </c>
@@ -59218,7 +59219,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="719" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="719" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A719" s="25">
         <v>74</v>
       </c>
@@ -59238,7 +59239,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="720" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="720" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A720" s="25">
         <v>75</v>
       </c>
@@ -59258,7 +59259,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="721" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="721" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A721" s="25">
         <v>75</v>
       </c>
@@ -59278,7 +59279,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="722" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="722" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A722" s="25">
         <v>75</v>
       </c>
@@ -59298,7 +59299,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="723" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="723" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A723" s="25">
         <v>75</v>
       </c>
@@ -59318,7 +59319,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="724" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="724" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A724" s="25">
         <v>75</v>
       </c>
@@ -59338,7 +59339,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="725" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="725" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A725" s="25">
         <v>75</v>
       </c>
@@ -59358,7 +59359,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="726" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="726" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A726" s="25">
         <v>75</v>
       </c>
@@ -59378,7 +59379,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="727" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="727" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A727" s="25">
         <v>75</v>
       </c>
@@ -59398,7 +59399,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="728" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="728" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A728" s="25">
         <v>75</v>
       </c>
@@ -59418,7 +59419,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="729" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="729" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A729" s="25">
         <v>75</v>
       </c>
@@ -59438,7 +59439,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="730" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="730" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A730" s="25">
         <v>75</v>
       </c>
@@ -59458,7 +59459,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="731" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="731" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A731" s="25">
         <v>75</v>
       </c>
@@ -59478,7 +59479,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="732" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="732" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A732" s="25">
         <v>75</v>
       </c>
@@ -59498,7 +59499,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="733" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="733" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A733" s="25">
         <v>75</v>
       </c>
@@ -59518,7 +59519,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="734" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="734" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A734" s="25">
         <v>75</v>
       </c>
@@ -59538,7 +59539,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="735" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="735" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A735" s="25">
         <v>75</v>
       </c>
@@ -59558,7 +59559,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="736" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="736" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A736" s="25">
         <v>75</v>
       </c>
@@ -59578,7 +59579,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="737" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="737" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A737" s="25">
         <v>75</v>
       </c>
@@ -59598,7 +59599,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="738" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="738" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A738" s="25">
         <v>75</v>
       </c>
@@ -59618,7 +59619,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="739" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="739" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A739" s="25">
         <v>75</v>
       </c>
@@ -59638,7 +59639,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="740" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="740" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A740" s="25">
         <v>75</v>
       </c>
@@ -59658,7 +59659,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="741" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="741" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A741" s="25">
         <v>75</v>
       </c>
@@ -59678,7 +59679,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="742" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="742" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A742" s="25">
         <v>75</v>
       </c>
@@ -59698,7 +59699,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="743" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="743" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A743" s="25">
         <v>75</v>
       </c>
@@ -59718,7 +59719,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="744" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="744" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A744" s="25">
         <v>75</v>
       </c>
@@ -59738,7 +59739,7 @@
         <v>0.42</v>
       </c>
     </row>
-    <row r="745" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="745" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A745" s="25">
         <v>75</v>
       </c>
@@ -59758,7 +59759,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="746" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="746" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A746" s="25">
         <v>75</v>
       </c>
@@ -59778,7 +59779,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="747" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="747" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A747" s="25">
         <v>75</v>
       </c>
@@ -59798,7 +59799,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="748" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="748" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A748" s="25">
         <v>75</v>
       </c>
@@ -59818,7 +59819,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="749" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="749" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A749" s="25">
         <v>75</v>
       </c>
@@ -59838,7 +59839,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="750" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="750" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A750" s="25">
         <v>75</v>
       </c>
@@ -59858,7 +59859,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="751" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="751" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A751" s="25">
         <v>75</v>
       </c>
@@ -59878,7 +59879,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="752" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="752" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A752" s="25">
         <v>75</v>
       </c>
@@ -59898,7 +59899,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="753" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="753" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A753" s="25">
         <v>75</v>
       </c>
@@ -59918,7 +59919,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="754" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="754" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A754" s="25">
         <v>75</v>
       </c>
@@ -59938,7 +59939,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="755" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="755" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A755" s="25">
         <v>75</v>
       </c>
@@ -59958,7 +59959,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="756" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="756" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A756" s="25">
         <v>76</v>
       </c>
@@ -59974,7 +59975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="757" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="757" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A757" s="25">
         <v>77</v>
       </c>
@@ -59990,7 +59991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="758" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="758" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A758" s="25">
         <v>78</v>
       </c>
@@ -60006,7 +60007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="759" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="759" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A759" s="25">
         <v>79</v>
       </c>
@@ -60022,7 +60023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="760" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="760" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A760" s="25">
         <v>79</v>
       </c>
@@ -60038,7 +60039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="761" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="761" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A761" s="25">
         <v>79</v>
       </c>
@@ -60054,7 +60055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="762" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="762" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A762" s="25">
         <v>80</v>
       </c>
@@ -60070,7 +60071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="763" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="763" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A763" s="25">
         <v>80</v>
       </c>
@@ -60086,7 +60087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="764" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="764" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A764" s="25">
         <v>80</v>
       </c>
@@ -60102,7 +60103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="765" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="765" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A765" s="25">
         <v>80</v>
       </c>
@@ -60118,7 +60119,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="766" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="766" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A766" s="25">
         <v>80</v>
       </c>
@@ -60134,7 +60135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="767" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="767" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A767" s="25">
         <v>80</v>
       </c>
@@ -60150,7 +60151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="768" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="768" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A768" s="25">
         <v>80</v>
       </c>
@@ -60166,7 +60167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="769" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="769" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A769" s="25">
         <v>81</v>
       </c>
@@ -60182,7 +60183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="770" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="770" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A770" s="25">
         <v>81</v>
       </c>
@@ -60198,7 +60199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="771" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="771" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A771" s="25">
         <v>81</v>
       </c>
@@ -60214,7 +60215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="772" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="772" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A772" s="25">
         <v>81</v>
       </c>
@@ -60230,7 +60231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="773" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="773" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A773" s="25">
         <v>82</v>
       </c>
@@ -60250,7 +60251,7 @@
         <v>0.57999999999999996</v>
       </c>
     </row>
-    <row r="774" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="774" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A774" s="25">
         <v>82</v>
       </c>
@@ -60270,7 +60271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="775" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="775" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A775" s="25">
         <v>82</v>
       </c>
@@ -60290,7 +60291,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="776" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="776" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A776" s="25">
         <v>82</v>
       </c>
@@ -60310,7 +60311,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="777" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="777" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A777" s="25">
         <v>82</v>
       </c>
@@ -60330,7 +60331,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="778" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="778" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A778" s="25">
         <v>82</v>
       </c>
@@ -60350,7 +60351,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="779" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="779" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A779" s="25">
         <v>82</v>
       </c>
@@ -60370,7 +60371,7 @@
         <v>0.24</v>
       </c>
     </row>
-    <row r="780" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="780" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A780" s="25">
         <v>82</v>
       </c>
@@ -60390,7 +60391,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="781" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="781" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A781" s="25">
         <v>82</v>
       </c>
@@ -60410,7 +60411,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="782" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="782" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A782" s="25">
         <v>82</v>
       </c>
@@ -60430,7 +60431,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="783" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="783" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A783" s="25">
         <v>82</v>
       </c>
@@ -60450,7 +60451,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="784" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="784" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A784" s="25">
         <v>82</v>
       </c>
@@ -60470,7 +60471,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="785" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="785" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A785" s="25">
         <v>82</v>
       </c>
@@ -60490,7 +60491,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="786" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="786" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A786" s="25">
         <v>82</v>
       </c>
@@ -60510,7 +60511,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="787" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="787" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A787" s="25">
         <v>82</v>
       </c>
@@ -60530,7 +60531,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="788" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="788" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A788" s="25">
         <v>82</v>
       </c>
@@ -60550,7 +60551,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="789" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="789" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A789" s="25">
         <v>83</v>
       </c>
@@ -60566,7 +60567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="790" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="790" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A790" s="25">
         <v>84</v>
       </c>
@@ -60582,7 +60583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="791" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="791" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A791" s="25">
         <v>84</v>
       </c>
@@ -60598,7 +60599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="792" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="792" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A792" s="25">
         <v>84</v>
       </c>
@@ -60614,7 +60615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="793" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="793" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A793" s="25">
         <v>84</v>
       </c>
@@ -60630,7 +60631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="794" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="794" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A794" s="25">
         <v>84</v>
       </c>
@@ -60646,7 +60647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="795" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="795" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A795" s="25">
         <v>84</v>
       </c>
@@ -60662,7 +60663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="796" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="796" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A796" s="25">
         <v>84</v>
       </c>
@@ -60678,7 +60679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="797" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="797" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A797" s="25">
         <v>84</v>
       </c>
@@ -60694,7 +60695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="798" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="798" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A798" s="25">
         <v>85</v>
       </c>
@@ -60714,7 +60715,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="799" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="799" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A799" s="25">
         <v>85</v>
       </c>
@@ -60734,7 +60735,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="800" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="800" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A800" s="25">
         <v>85</v>
       </c>
@@ -60754,7 +60755,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="801" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="801" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A801" s="25">
         <v>85</v>
       </c>
@@ -60774,7 +60775,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="802" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="802" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A802" s="25">
         <v>85</v>
       </c>
@@ -60794,7 +60795,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="803" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="803" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A803" s="25">
         <v>85</v>
       </c>
@@ -60814,7 +60815,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="804" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="804" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A804" s="25">
         <v>85</v>
       </c>
@@ -60834,7 +60835,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="805" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="805" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A805" s="25">
         <v>85</v>
       </c>
@@ -60854,7 +60855,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="806" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="806" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A806" s="25">
         <v>85</v>
       </c>
@@ -60874,7 +60875,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="807" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="807" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A807" s="25">
         <v>85</v>
       </c>
@@ -60894,7 +60895,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="808" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="808" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A808" s="25">
         <v>85</v>
       </c>
@@ -60914,7 +60915,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="809" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="809" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A809" s="25">
         <v>85</v>
       </c>
@@ -60934,7 +60935,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="810" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="810" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A810" s="25">
         <v>85</v>
       </c>
@@ -60954,7 +60955,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="811" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="811" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A811" s="25">
         <v>85</v>
       </c>
@@ -60974,7 +60975,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="812" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="812" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A812" s="25">
         <v>85</v>
       </c>
@@ -60994,7 +60995,7 @@
         <v>0.64</v>
       </c>
     </row>
-    <row r="813" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="813" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A813" s="25">
         <v>85</v>
       </c>
@@ -61014,7 +61015,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="814" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="814" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A814" s="25">
         <v>85</v>
       </c>
@@ -61034,7 +61035,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="815" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="815" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A815" s="25">
         <v>85</v>
       </c>
@@ -61054,7 +61055,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="816" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="816" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A816" s="25">
         <v>85</v>
       </c>
@@ -61074,7 +61075,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="817" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="817" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A817" s="25">
         <v>85</v>
       </c>
@@ -61094,7 +61095,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="818" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="818" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A818" s="25">
         <v>85</v>
       </c>
@@ -61114,7 +61115,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="819" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="819" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A819" s="25">
         <v>86</v>
       </c>
@@ -61134,7 +61135,7 @@
         <v>0.52</v>
       </c>
     </row>
-    <row r="820" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="820" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A820" s="25">
         <v>86</v>
       </c>
@@ -61154,7 +61155,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="821" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="821" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A821" s="25">
         <v>86</v>
       </c>
@@ -61174,7 +61175,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="822" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="822" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A822" s="25">
         <v>86</v>
       </c>
@@ -61194,7 +61195,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="823" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="823" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A823" s="25">
         <v>86</v>
       </c>
@@ -61214,7 +61215,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="824" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="824" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A824" s="25">
         <v>86</v>
       </c>
@@ -61234,7 +61235,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="825" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="825" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A825" s="25">
         <v>86</v>
       </c>
@@ -61254,7 +61255,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="826" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="826" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A826" s="25">
         <v>86</v>
       </c>
@@ -61274,7 +61275,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="827" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="827" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A827" s="25">
         <v>86</v>
       </c>
@@ -61294,7 +61295,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="828" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="828" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A828" s="25">
         <v>86</v>
       </c>
@@ -61314,7 +61315,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="829" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="829" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A829" s="25">
         <v>86</v>
       </c>
@@ -61334,7 +61335,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="830" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="830" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A830" s="25">
         <v>86</v>
       </c>
@@ -61354,7 +61355,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="831" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="831" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A831" s="25">
         <v>86</v>
       </c>
@@ -61374,7 +61375,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="832" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="832" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A832" s="25">
         <v>86</v>
       </c>
@@ -61394,7 +61395,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="833" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="833" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A833" s="25">
         <v>86</v>
       </c>
@@ -61414,7 +61415,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="834" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="834" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A834" s="25">
         <v>86</v>
       </c>
@@ -61434,7 +61435,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="835" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="835" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A835" s="25">
         <v>86</v>
       </c>
@@ -61454,7 +61455,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="836" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="836" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A836" s="25">
         <v>86</v>
       </c>
@@ -61474,7 +61475,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="837" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="837" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A837" s="25">
         <v>86</v>
       </c>
@@ -61494,7 +61495,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="838" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="838" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A838" s="25">
         <v>86</v>
       </c>
@@ -61514,7 +61515,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="839" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="839" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A839" s="25">
         <v>86</v>
       </c>
@@ -61534,7 +61535,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="840" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="840" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A840" s="25">
         <v>87</v>
       </c>
@@ -61550,7 +61551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="841" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="841" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A841" s="25">
         <v>87</v>
       </c>
@@ -61566,7 +61567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="842" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="842" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A842" s="25">
         <v>87</v>
       </c>
@@ -61582,7 +61583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="843" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="843" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A843" s="25">
         <v>87</v>
       </c>
@@ -61598,7 +61599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="844" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="844" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A844" s="25">
         <v>87</v>
       </c>
@@ -61614,7 +61615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="845" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="845" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A845" s="25">
         <v>87</v>
       </c>
@@ -61630,7 +61631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="846" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="846" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A846" s="25">
         <v>87</v>
       </c>
@@ -61646,7 +61647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="847" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="847" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A847" s="25">
         <v>87</v>
       </c>
@@ -61662,7 +61663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="848" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="848" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A848" s="25">
         <v>87</v>
       </c>
@@ -61678,7 +61679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="849" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="849" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A849" s="25">
         <v>87</v>
       </c>
@@ -61698,7 +61699,7 @@
         <v>0.22</v>
       </c>
     </row>
-    <row r="850" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="850" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A850" s="25">
         <v>87</v>
       </c>
@@ -61718,7 +61719,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="851" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="851" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A851" s="25">
         <v>87</v>
       </c>
@@ -61738,7 +61739,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="852" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="852" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A852" s="25">
         <v>87</v>
       </c>
@@ -61758,7 +61759,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="853" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="853" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A853" s="25">
         <v>87</v>
       </c>
@@ -61778,7 +61779,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="854" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="854" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A854" s="25">
         <v>88</v>
       </c>
@@ -61794,7 +61795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="855" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="855" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A855" s="25">
         <v>89</v>
       </c>
@@ -61810,7 +61811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="856" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="856" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A856" s="25">
         <v>89</v>
       </c>
@@ -61826,7 +61827,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="857" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="857" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A857" s="25">
         <v>90</v>
       </c>
@@ -61840,7 +61841,7 @@
       </c>
       <c r="F857" s="28"/>
     </row>
-    <row r="858" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="858" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A858" s="25">
         <v>91</v>
       </c>
@@ -61856,7 +61857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="859" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="859" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A859" s="25">
         <v>91</v>
       </c>
@@ -61872,7 +61873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="860" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="860" spans="1:6" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A860" s="25">
         <v>92</v>
       </c>
@@ -63713,7 +63714,13 @@
       <c r="F1316" s="33"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F860"/>
+  <autoFilter ref="A1:F860">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="37"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
   <legacyDrawing r:id="rId1"/>
